--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
@@ -992,13 +992,13 @@
         <v>2.8</v>
       </c>
       <c r="G3">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I3">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J3">
         <v>3.6</v>
@@ -1040,7 +1040,7 @@
         <v>1.58</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X3">
         <v>16.5</v>
@@ -1049,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="Z3">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA3">
         <v>42</v>
@@ -1064,7 +1064,7 @@
         <v>12.5</v>
       </c>
       <c r="AE3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF3">
         <v>20</v>
@@ -1079,13 +1079,13 @@
         <v>40</v>
       </c>
       <c r="AJ3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK3">
         <v>30</v>
       </c>
       <c r="AL3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM3">
         <v>90</v>
@@ -1114,16 +1114,16 @@
         <v>88</v>
       </c>
       <c r="F4">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H4">
+        <v>2.1</v>
+      </c>
+      <c r="I4">
         <v>2.14</v>
-      </c>
-      <c r="I4">
-        <v>2.16</v>
       </c>
       <c r="J4">
         <v>3.8</v>
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="AA4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB4">
         <v>15.5</v>
@@ -1239,16 +1239,16 @@
         <v>89</v>
       </c>
       <c r="F5">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G5">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="H5">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I5">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="J5">
         <v>3.95</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q5">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>90</v>
       </c>
       <c r="F6">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="G6">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="H6">
-        <v>1.97</v>
+        <v>3.95</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="J6">
         <v>3.6</v>
       </c>
       <c r="K6">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1489,22 +1489,22 @@
         <v>91</v>
       </c>
       <c r="F7">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G7">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H7">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7">
         <v>5.8</v>
       </c>
       <c r="J7">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K7">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q7">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         <v>92</v>
       </c>
       <c r="F8">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="G8">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H8">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="J8">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K8">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>4.1</v>
       </c>
       <c r="I9">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>3.2</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q9">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1864,16 +1864,16 @@
         <v>94</v>
       </c>
       <c r="F10">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H10">
         <v>2.74</v>
       </c>
       <c r="I10">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q10">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>3.65</v>
       </c>
       <c r="I11">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -2114,7 +2114,7 @@
         <v>96</v>
       </c>
       <c r="F12">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G12">
         <v>3.25</v>
@@ -2239,22 +2239,22 @@
         <v>97</v>
       </c>
       <c r="F13">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="G13">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="I13">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="J13">
         <v>3.05</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>23</v>
       </c>
       <c r="J20">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>7.6</v>
@@ -3138,7 +3138,7 @@
         <v>1.03</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20">
         <v>1.17</v>
@@ -3174,7 +3174,7 @@
         <v>1000</v>
       </c>
       <c r="Z20">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA20">
         <v>1000</v>
@@ -3186,7 +3186,7 @@
         <v>17.5</v>
       </c>
       <c r="AD20">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE20">
         <v>980</v>
@@ -3195,13 +3195,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG20">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH20">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI20">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ20">
         <v>9</v>
@@ -3248,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J21">
         <v>4.1</v>
@@ -3332,13 +3332,13 @@
         <v>24</v>
       </c>
       <c r="AK21">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL21">
         <v>28</v>
       </c>
       <c r="AM21">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN21">
         <v>9.199999999999999</v>
@@ -3364,13 +3364,13 @@
         <v>106</v>
       </c>
       <c r="F22">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G22">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H22">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I22">
         <v>3.9</v>
@@ -3415,10 +3415,10 @@
         <v>1.34</v>
       </c>
       <c r="W22">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y22">
         <v>28</v>
@@ -3436,7 +3436,7 @@
         <v>11.5</v>
       </c>
       <c r="AD22">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE22">
         <v>36</v>
@@ -3489,22 +3489,22 @@
         <v>107</v>
       </c>
       <c r="F23">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H23">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I23">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J23">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K23">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="AC23">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD23">
         <v>9.800000000000001</v>
@@ -3567,7 +3567,7 @@
         <v>14.5</v>
       </c>
       <c r="AF23">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG23">
         <v>28</v>
@@ -3614,7 +3614,7 @@
         <v>108</v>
       </c>
       <c r="F24">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G24">
         <v>1.92</v>
@@ -3623,10 +3623,10 @@
         <v>4.5</v>
       </c>
       <c r="I24">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J24">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K24">
         <v>3.9</v>
@@ -3742,19 +3742,19 @@
         <v>1.92</v>
       </c>
       <c r="G25">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H25">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I25">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J25">
         <v>3.75</v>
       </c>
       <c r="K25">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3769,22 +3769,22 @@
         <v>1.29</v>
       </c>
       <c r="P25">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q25">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R25">
         <v>1.42</v>
       </c>
       <c r="S25">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T25">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U25">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y25">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA25">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -3811,40 +3811,40 @@
         <v>8.6</v>
       </c>
       <c r="AD25">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE25">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF25">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG25">
         <v>10.5</v>
       </c>
       <c r="AH25">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI25">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ25">
         <v>22</v>
       </c>
       <c r="AK25">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL25">
         <v>75</v>
       </c>
       <c r="AM25">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN25">
         <v>12</v>
       </c>
       <c r="AO25">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3864,7 +3864,7 @@
         <v>110</v>
       </c>
       <c r="F26">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G26">
         <v>2.42</v>
@@ -3873,10 +3873,10 @@
         <v>3.35</v>
       </c>
       <c r="I26">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J26">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K26">
         <v>3.5</v>
@@ -3921,13 +3921,13 @@
         <v>13.5</v>
       </c>
       <c r="Y26">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26">
         <v>24</v>
       </c>
       <c r="AA26">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB26">
         <v>10</v>
@@ -3939,10 +3939,10 @@
         <v>14.5</v>
       </c>
       <c r="AE26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF26">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG26">
         <v>11.5</v>
@@ -3954,10 +3954,10 @@
         <v>55</v>
       </c>
       <c r="AJ26">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL26">
         <v>40</v>
@@ -4022,7 +4022,7 @@
         <v>1.79</v>
       </c>
       <c r="Q27">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>2.74</v>
       </c>
       <c r="J28">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K28">
         <v>3.3</v>
@@ -4239,22 +4239,22 @@
         <v>113</v>
       </c>
       <c r="F29">
+        <v>1.36</v>
+      </c>
+      <c r="G29">
         <v>1.41</v>
       </c>
-      <c r="G29">
-        <v>1.42</v>
-      </c>
       <c r="H29">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J29">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q29">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>1.61</v>
       </c>
       <c r="Q30">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="R30">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
@@ -995,7 +995,7 @@
         <v>2.84</v>
       </c>
       <c r="H3">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I3">
         <v>2.72</v>
@@ -1114,16 +1114,16 @@
         <v>88</v>
       </c>
       <c r="F4">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G4">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H4">
         <v>2.1</v>
       </c>
       <c r="I4">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J4">
         <v>3.8</v>
@@ -1141,13 +1141,13 @@
         <v>4.2</v>
       </c>
       <c r="O4">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P4">
         <v>2.1</v>
       </c>
       <c r="Q4">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R4">
         <v>1.43</v>
@@ -1159,7 +1159,7 @@
         <v>1.74</v>
       </c>
       <c r="U4">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>1000</v>
       </c>
       <c r="AN4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO4">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1489,22 +1489,22 @@
         <v>91</v>
       </c>
       <c r="F7">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="G7">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="H7">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I7">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J7">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q7">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1614,10 +1614,10 @@
         <v>92</v>
       </c>
       <c r="F8">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G8">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H8">
         <v>3.2</v>
@@ -1626,10 +1626,10 @@
         <v>4.3</v>
       </c>
       <c r="J8">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="Q8">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q9">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>94</v>
       </c>
       <c r="F10">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G10">
         <v>3.15</v>
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>2.4</v>
       </c>
       <c r="H11">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I11">
         <v>4.6</v>
@@ -2147,7 +2147,7 @@
         <v>1.69</v>
       </c>
       <c r="Q12">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>2.84</v>
       </c>
       <c r="G13">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H13">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I13">
         <v>2.88</v>
@@ -2254,7 +2254,7 @@
         <v>3.05</v>
       </c>
       <c r="K13">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>1.7</v>
       </c>
       <c r="S20">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T20">
         <v>2.28</v>
@@ -3332,7 +3332,7 @@
         <v>24</v>
       </c>
       <c r="AK21">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL21">
         <v>28</v>
@@ -3367,13 +3367,13 @@
         <v>1.95</v>
       </c>
       <c r="G22">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H22">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I22">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J22">
         <v>4.3</v>
@@ -3397,7 +3397,7 @@
         <v>3.2</v>
       </c>
       <c r="Q22">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R22">
         <v>1.91</v>
@@ -3412,10 +3412,10 @@
         <v>3.05</v>
       </c>
       <c r="V22">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W22">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X22">
         <v>36</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="AH22">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI22">
         <v>34</v>
@@ -3489,7 +3489,7 @@
         <v>107</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G23">
         <v>7.8</v>
@@ -3745,13 +3745,13 @@
         <v>1.93</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I25">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J25">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K25">
         <v>3.9</v>
@@ -3778,7 +3778,7 @@
         <v>1.42</v>
       </c>
       <c r="S25">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T25">
         <v>1.79</v>
@@ -3796,13 +3796,13 @@
         <v>15.5</v>
       </c>
       <c r="Y25">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z25">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA25">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -3814,10 +3814,10 @@
         <v>18.5</v>
       </c>
       <c r="AE25">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF25">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG25">
         <v>10.5</v>
@@ -3826,7 +3826,7 @@
         <v>18.5</v>
       </c>
       <c r="AI25">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ25">
         <v>22</v>
@@ -3838,10 +3838,10 @@
         <v>75</v>
       </c>
       <c r="AM25">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN25">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO25">
         <v>1000</v>
@@ -3876,7 +3876,7 @@
         <v>3.45</v>
       </c>
       <c r="J26">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K26">
         <v>3.5</v>
@@ -4114,19 +4114,19 @@
         <v>112</v>
       </c>
       <c r="F28">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G28">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H28">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="I28">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J28">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K28">
         <v>3.3</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q28">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R28">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
   <si>
     <t>League</t>
   </si>
@@ -139,16 +139,28 @@
     <t>Odd_CS_Goleada_A_Lay</t>
   </si>
   <si>
+    <t>Czech 1 Liga</t>
+  </si>
+  <si>
     <t>Lithuanian A Lyga</t>
   </si>
   <si>
+    <t>Slovakian Super League</t>
+  </si>
+  <si>
     <t>UEFA Champions League</t>
   </si>
   <si>
+    <t>US USL League One</t>
+  </si>
+  <si>
+    <t>Norwegian Eliteserien</t>
+  </si>
+  <si>
     <t>German 3 Liga</t>
   </si>
   <si>
-    <t>Norwegian Eliteserien</t>
+    <t>US United Soccer League</t>
   </si>
   <si>
     <t>Italian Serie B</t>
@@ -172,6 +184,9 @@
     <t>14:00:00</t>
   </si>
   <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
     <t>15:30:00</t>
   </si>
   <si>
@@ -187,28 +202,55 @@
     <t>19:30:00</t>
   </si>
   <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
+    <t>Pardubice</t>
+  </si>
+  <si>
     <t>Panevezys</t>
   </si>
   <si>
+    <t>Hegelmann Litauen</t>
+  </si>
+  <si>
+    <t>FC Kosice</t>
+  </si>
+  <si>
     <t>Qarabag FK</t>
   </si>
   <si>
     <t>Union St Gilloise</t>
   </si>
   <si>
+    <t>Union Omaha</t>
+  </si>
+  <si>
+    <t>KFUM Oslo</t>
+  </si>
+  <si>
+    <t>1860 Munich</t>
+  </si>
+  <si>
+    <t>Verl</t>
+  </si>
+  <si>
+    <t>VfL Osnabruck</t>
+  </si>
+  <si>
     <t>SSV Ulm</t>
   </si>
   <si>
-    <t>VfL Osnabruck</t>
-  </si>
-  <si>
-    <t>1860 Munich</t>
-  </si>
-  <si>
-    <t>Verl</t>
-  </si>
-  <si>
-    <t>KFUM Oslo</t>
+    <t>Rot-Weiss Essen</t>
+  </si>
+  <si>
+    <t>El Paso Locomotive FC</t>
   </si>
   <si>
     <t>Empoli</t>
@@ -223,22 +265,25 @@
     <t>Carrarese</t>
   </si>
   <si>
+    <t>Brackley Town</t>
+  </si>
+  <si>
     <t>Rochdale</t>
   </si>
   <si>
-    <t>Brackley Town</t>
-  </si>
-  <si>
     <t>Altrincham</t>
   </si>
   <si>
+    <t>Boston Utd</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
     <t>York City</t>
   </si>
   <si>
-    <t>Boston Utd</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
+    <t>Villarreal</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -259,9 +304,6 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
     <t>Mirassol</t>
   </si>
   <si>
@@ -274,28 +316,61 @@
     <t>Internacional</t>
   </si>
   <si>
+    <t>One Knoxville SC</t>
+  </si>
+  <si>
+    <t>Birmingham Legion FC</t>
+  </si>
+  <si>
+    <t>Botafogo FR</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Sacramento Republic</t>
+  </si>
+  <si>
+    <t>Banik Ostrava</t>
+  </si>
+  <si>
     <t>FK Dainava Alytus</t>
   </si>
   <si>
+    <t>FK Kauno Zalgiris</t>
+  </si>
+  <si>
+    <t>Dunajska Streda</t>
+  </si>
+  <si>
     <t>FC Copenhagen</t>
   </si>
   <si>
     <t>Newcastle</t>
   </si>
   <si>
+    <t>Portland Hearts of Pine</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Viktoria Koln</t>
+  </si>
+  <si>
+    <t>Ingolstadt</t>
+  </si>
+  <si>
+    <t>Jahn Regensburg</t>
+  </si>
+  <si>
     <t>Schweinfurt</t>
   </si>
   <si>
-    <t>Jahn Regensburg</t>
-  </si>
-  <si>
-    <t>Viktoria Koln</t>
-  </si>
-  <si>
-    <t>Ingolstadt</t>
-  </si>
-  <si>
-    <t>Fredrikstad</t>
+    <t>Hoffenheim II</t>
+  </si>
+  <si>
+    <t>Oakland Roots</t>
   </si>
   <si>
     <t>AC Monza</t>
@@ -310,22 +385,25 @@
     <t>Modena</t>
   </si>
   <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
     <t>FC Halifax Town</t>
   </si>
   <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
     <t>Tamworth FC</t>
   </si>
   <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
     <t>Scunthorpe</t>
   </si>
   <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Olympiakos</t>
@@ -346,9 +424,6 @@
     <t>Sporting Lisbon</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>Red Bull Bragantino</t>
   </si>
   <si>
@@ -359,6 +434,21 @@
   </si>
   <si>
     <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Chattanooga Red Wolves SC</t>
+  </si>
+  <si>
+    <t>North Carolina FC</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Orange County Blues</t>
   </si>
 </sst>
 </file>
@@ -716,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,124 +942,124 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F2">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="J2">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P2">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q2">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -977,124 +1067,124 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F3">
-        <v>2.8</v>
+        <v>1.37</v>
       </c>
       <c r="G3">
-        <v>2.84</v>
+        <v>1.56</v>
       </c>
       <c r="H3">
-        <v>2.68</v>
+        <v>7.6</v>
       </c>
       <c r="I3">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K3">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="L3">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M3">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3">
-        <v>4.2</v>
+        <v>1.11</v>
       </c>
       <c r="O3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q3">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R3">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S3">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="U3">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="V3">
-        <v>1.58</v>
+        <v>1.02</v>
       </c>
       <c r="W3">
-        <v>1.54</v>
+        <v>2.78</v>
       </c>
       <c r="X3">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC3">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF3">
-        <v>20</v>
+        <v>7.6</v>
       </c>
       <c r="AG3">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI3">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK3">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM3">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN3">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO3">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1102,124 +1192,124 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F4">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="G4">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I4">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="K4">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M4">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="O4">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P4">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="Q4">
         <v>1.87</v>
       </c>
       <c r="R4">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="S4">
-        <v>3.2</v>
+        <v>1.87</v>
       </c>
       <c r="T4">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U4">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X4">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y4">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA4">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF4">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG4">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI4">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK4">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL4">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4">
         <v>1000</v>
       </c>
       <c r="AN4">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO4">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1227,1954 +1317,1954 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F5">
+        <v>3.05</v>
+      </c>
+      <c r="G5">
+        <v>3.55</v>
+      </c>
+      <c r="H5">
+        <v>2.14</v>
+      </c>
+      <c r="I5">
+        <v>2.38</v>
+      </c>
+      <c r="J5">
+        <v>3.7</v>
+      </c>
+      <c r="K5">
+        <v>4.3</v>
+      </c>
+      <c r="L5">
+        <v>1.28</v>
+      </c>
+      <c r="M5">
+        <v>1.05</v>
+      </c>
+      <c r="N5">
+        <v>4.7</v>
+      </c>
+      <c r="O5">
+        <v>1.21</v>
+      </c>
+      <c r="P5">
+        <v>2.28</v>
+      </c>
+      <c r="Q5">
+        <v>1.62</v>
+      </c>
+      <c r="R5">
+        <v>1.52</v>
+      </c>
+      <c r="S5">
+        <v>2.4</v>
+      </c>
+      <c r="T5">
         <v>1.58</v>
       </c>
-      <c r="G5">
-        <v>1.75</v>
-      </c>
-      <c r="H5">
-        <v>2.22</v>
-      </c>
-      <c r="I5">
-        <v>7.4</v>
-      </c>
-      <c r="J5">
-        <v>3.95</v>
-      </c>
-      <c r="K5">
-        <v>950</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>2.16</v>
-      </c>
-      <c r="Q5">
-        <v>1.71</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F6">
-        <v>1.72</v>
+        <v>2.8</v>
       </c>
       <c r="G6">
-        <v>1.9</v>
+        <v>2.82</v>
       </c>
       <c r="H6">
-        <v>3.95</v>
+        <v>2.7</v>
       </c>
       <c r="I6">
-        <v>6.2</v>
+        <v>2.72</v>
       </c>
       <c r="J6">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K6">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q6">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <v>3.7</v>
+      </c>
+      <c r="G7">
+        <v>3.75</v>
+      </c>
+      <c r="H7">
+        <v>2.12</v>
+      </c>
+      <c r="I7">
+        <v>2.14</v>
+      </c>
+      <c r="J7">
+        <v>3.85</v>
+      </c>
+      <c r="K7">
+        <v>3.9</v>
+      </c>
+      <c r="L7">
+        <v>1.4</v>
+      </c>
+      <c r="M7">
+        <v>1.06</v>
+      </c>
+      <c r="N7">
+        <v>4.3</v>
+      </c>
+      <c r="O7">
+        <v>1.28</v>
+      </c>
+      <c r="P7">
+        <v>2.16</v>
+      </c>
+      <c r="Q7">
+        <v>1.84</v>
+      </c>
+      <c r="R7">
+        <v>1.43</v>
+      </c>
+      <c r="S7">
+        <v>3.15</v>
+      </c>
+      <c r="T7">
+        <v>1.74</v>
+      </c>
+      <c r="U7">
+        <v>2.28</v>
+      </c>
+      <c r="V7">
+        <v>1.88</v>
+      </c>
+      <c r="W7">
+        <v>1.36</v>
+      </c>
+      <c r="X7">
+        <v>16</v>
+      </c>
+      <c r="Y7">
+        <v>11</v>
+      </c>
+      <c r="Z7">
+        <v>13.5</v>
+      </c>
+      <c r="AA7">
+        <v>26</v>
+      </c>
+      <c r="AB7">
+        <v>16</v>
+      </c>
+      <c r="AC7">
+        <v>8.4</v>
+      </c>
+      <c r="AD7">
+        <v>10.5</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+      <c r="AF7">
+        <v>27</v>
+      </c>
+      <c r="AG7">
+        <v>15</v>
+      </c>
+      <c r="AH7">
+        <v>16.5</v>
+      </c>
+      <c r="AI7">
+        <v>34</v>
+      </c>
+      <c r="AJ7">
+        <v>70</v>
+      </c>
+      <c r="AK7">
+        <v>40</v>
+      </c>
+      <c r="AL7">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7">
-        <v>1.84</v>
-      </c>
-      <c r="G7">
-        <v>2.04</v>
-      </c>
-      <c r="H7">
-        <v>3.85</v>
-      </c>
-      <c r="I7">
-        <v>4.6</v>
-      </c>
-      <c r="J7">
-        <v>3.75</v>
-      </c>
-      <c r="K7">
-        <v>4.5</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>2.2</v>
-      </c>
-      <c r="Q7">
-        <v>1.67</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
       <c r="AM7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>1.96</v>
+        <v>1.02</v>
       </c>
       <c r="G8">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="I8">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>5.7</v>
+        <v>950</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P8">
-        <v>2.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q8">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G9">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H9">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P9">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q9">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>2.84</v>
+        <v>1.82</v>
       </c>
       <c r="G10">
-        <v>3.15</v>
+        <v>1.96</v>
       </c>
       <c r="H10">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="K10">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="Q10">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G11">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P11">
-        <v>1.61</v>
+        <v>2.66</v>
       </c>
       <c r="Q11">
-        <v>2.38</v>
+        <v>1.51</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>2.92</v>
+        <v>1.72</v>
       </c>
       <c r="G12">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="H12">
-        <v>2.56</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>2.84</v>
+        <v>6.2</v>
       </c>
       <c r="J12">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P12">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="Q12">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>2.84</v>
+        <v>1.65</v>
       </c>
       <c r="G13">
-        <v>3.15</v>
+        <v>1.79</v>
       </c>
       <c r="H13">
-        <v>2.74</v>
+        <v>4.9</v>
       </c>
       <c r="I13">
-        <v>2.88</v>
+        <v>6.8</v>
       </c>
       <c r="J13">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K13">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P13">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="Q13">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="G14">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="H14">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="J14">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P14">
-        <v>1.9</v>
+        <v>2.46</v>
       </c>
       <c r="Q14">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G15">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I15">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="J15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K15">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P15">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="Q15">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3.3</v>
+      </c>
+      <c r="H16">
+        <v>2.68</v>
+      </c>
+      <c r="I16">
+        <v>2.88</v>
+      </c>
+      <c r="J16">
+        <v>3.05</v>
+      </c>
+      <c r="K16">
+        <v>3.15</v>
+      </c>
+      <c r="L16">
+        <v>1.57</v>
+      </c>
+      <c r="M16">
+        <v>1.11</v>
+      </c>
+      <c r="N16">
+        <v>2.78</v>
+      </c>
+      <c r="O16">
+        <v>1.48</v>
+      </c>
+      <c r="P16">
+        <v>1.6</v>
+      </c>
+      <c r="Q16">
+        <v>2.42</v>
+      </c>
+      <c r="R16">
+        <v>1.22</v>
+      </c>
+      <c r="S16">
+        <v>4.8</v>
+      </c>
+      <c r="T16">
+        <v>2.02</v>
+      </c>
+      <c r="U16">
+        <v>1.86</v>
+      </c>
+      <c r="V16">
+        <v>1.53</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>11</v>
+      </c>
+      <c r="Y16">
+        <v>10.5</v>
+      </c>
+      <c r="Z16">
+        <v>20</v>
+      </c>
+      <c r="AA16">
+        <v>55</v>
+      </c>
+      <c r="AB16">
+        <v>11.5</v>
+      </c>
+      <c r="AC16">
+        <v>8.6</v>
+      </c>
+      <c r="AD16">
+        <v>15.5</v>
+      </c>
+      <c r="AE16">
+        <v>44</v>
+      </c>
+      <c r="AF16">
+        <v>24</v>
+      </c>
+      <c r="AG16">
+        <v>17.5</v>
+      </c>
+      <c r="AH16">
+        <v>26</v>
+      </c>
+      <c r="AI16">
+        <v>65</v>
+      </c>
+      <c r="AJ16">
+        <v>65</v>
+      </c>
+      <c r="AK16">
+        <v>55</v>
+      </c>
+      <c r="AL16">
+        <v>70</v>
+      </c>
+      <c r="AM16">
+        <v>190</v>
+      </c>
+      <c r="AN16">
+        <v>60</v>
+      </c>
+      <c r="AO16">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>1.87</v>
-      </c>
-      <c r="G16">
-        <v>2.38</v>
-      </c>
-      <c r="H16">
-        <v>3.3</v>
-      </c>
-      <c r="I16">
-        <v>5.6</v>
-      </c>
-      <c r="J16">
-        <v>3.55</v>
-      </c>
-      <c r="K16">
-        <v>6.4</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>2.02</v>
-      </c>
-      <c r="Q16">
-        <v>1.57</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>1.48</v>
+        <v>2.24</v>
       </c>
       <c r="G17">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3.2</v>
+      </c>
+      <c r="K17">
+        <v>3.3</v>
+      </c>
+      <c r="L17">
+        <v>1.45</v>
+      </c>
+      <c r="M17">
+        <v>1.11</v>
+      </c>
+      <c r="N17">
+        <v>2.78</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
+      </c>
+      <c r="P17">
+        <v>1.61</v>
+      </c>
+      <c r="Q17">
+        <v>2.5</v>
+      </c>
+      <c r="R17">
+        <v>1.22</v>
+      </c>
+      <c r="S17">
+        <v>4.9</v>
+      </c>
+      <c r="T17">
+        <v>2.08</v>
+      </c>
+      <c r="U17">
+        <v>1.82</v>
+      </c>
+      <c r="V17">
+        <v>1.33</v>
+      </c>
+      <c r="W17">
+        <v>1.74</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>11.5</v>
+      </c>
+      <c r="Z17">
+        <v>28</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>7.8</v>
+      </c>
+      <c r="AD17">
+        <v>17.5</v>
+      </c>
+      <c r="AE17">
+        <v>65</v>
+      </c>
+      <c r="AF17">
+        <v>14</v>
+      </c>
+      <c r="AG17">
+        <v>12.5</v>
+      </c>
+      <c r="AH17">
+        <v>23</v>
+      </c>
+      <c r="AI17">
+        <v>95</v>
+      </c>
+      <c r="AJ17">
         <v>980</v>
       </c>
-      <c r="J17">
-        <v>3.95</v>
-      </c>
-      <c r="K17">
-        <v>980</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>1.62</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>3.25</v>
       </c>
       <c r="H18">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="I18">
-        <v>1.84</v>
+        <v>2.72</v>
       </c>
       <c r="J18">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K18">
+        <v>3.35</v>
+      </c>
+      <c r="L18">
+        <v>1.43</v>
+      </c>
+      <c r="M18">
+        <v>1.1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1.43</v>
+      </c>
+      <c r="P18">
+        <v>1.7</v>
+      </c>
+      <c r="Q18">
+        <v>2.26</v>
+      </c>
+      <c r="R18">
+        <v>1.26</v>
+      </c>
+      <c r="S18">
+        <v>4.3</v>
+      </c>
+      <c r="T18">
+        <v>1.93</v>
+      </c>
+      <c r="U18">
+        <v>1.93</v>
+      </c>
+      <c r="V18">
+        <v>1.58</v>
+      </c>
+      <c r="W18">
+        <v>1.45</v>
+      </c>
+      <c r="X18">
+        <v>10.5</v>
+      </c>
+      <c r="Y18">
+        <v>9.6</v>
+      </c>
+      <c r="Z18">
         <v>980</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>1.85</v>
-      </c>
-      <c r="Q18">
-        <v>1.01</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
       <c r="AA18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>1.69</v>
+        <v>3.1</v>
       </c>
       <c r="G19">
+        <v>3.3</v>
+      </c>
+      <c r="H19">
+        <v>2.64</v>
+      </c>
+      <c r="I19">
+        <v>2.74</v>
+      </c>
+      <c r="J19">
+        <v>3.1</v>
+      </c>
+      <c r="K19">
+        <v>3.2</v>
+      </c>
+      <c r="L19">
+        <v>1.55</v>
+      </c>
+      <c r="M19">
+        <v>1.11</v>
+      </c>
+      <c r="N19">
+        <v>2.92</v>
+      </c>
+      <c r="O19">
+        <v>1.47</v>
+      </c>
+      <c r="P19">
+        <v>1.64</v>
+      </c>
+      <c r="Q19">
+        <v>2.44</v>
+      </c>
+      <c r="R19">
+        <v>1.23</v>
+      </c>
+      <c r="S19">
+        <v>4.6</v>
+      </c>
+      <c r="T19">
         <v>1.99</v>
       </c>
-      <c r="H19">
-        <v>3.8</v>
-      </c>
-      <c r="I19">
-        <v>7.6</v>
-      </c>
-      <c r="J19">
-        <v>3.7</v>
-      </c>
-      <c r="K19">
+      <c r="U19">
+        <v>1.89</v>
+      </c>
+      <c r="V19">
+        <v>1.57</v>
+      </c>
+      <c r="W19">
+        <v>1.44</v>
+      </c>
+      <c r="X19">
+        <v>9.6</v>
+      </c>
+      <c r="Y19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z19">
+        <v>16</v>
+      </c>
+      <c r="AA19">
+        <v>42</v>
+      </c>
+      <c r="AB19">
+        <v>10.5</v>
+      </c>
+      <c r="AC19">
+        <v>7.2</v>
+      </c>
+      <c r="AD19">
+        <v>13</v>
+      </c>
+      <c r="AE19">
+        <v>36</v>
+      </c>
+      <c r="AF19">
+        <v>20</v>
+      </c>
+      <c r="AG19">
+        <v>14.5</v>
+      </c>
+      <c r="AH19">
+        <v>22</v>
+      </c>
+      <c r="AI19">
+        <v>60</v>
+      </c>
+      <c r="AJ19">
+        <v>60</v>
+      </c>
+      <c r="AK19">
         <v>980</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1.92</v>
-      </c>
-      <c r="Q19">
-        <v>1.65</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
       <c r="AL19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F20">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="G20">
-        <v>1.23</v>
+        <v>2.12</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>3.65</v>
       </c>
       <c r="I20">
-        <v>23</v>
+        <v>4.8</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="K20">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M20">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N20">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="O20">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P20">
-        <v>2.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q20">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="S20">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
       <c r="T20">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="U20">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X20">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y20">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z20">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AA20">
         <v>1000</v>
@@ -3183,40 +3273,40 @@
         <v>10.5</v>
       </c>
       <c r="AC20">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AD20">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AE20">
+        <v>1000</v>
+      </c>
+      <c r="AF20">
+        <v>14</v>
+      </c>
+      <c r="AG20">
+        <v>13</v>
+      </c>
+      <c r="AH20">
         <v>980</v>
       </c>
-      <c r="AF20">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG20">
-        <v>11.5</v>
-      </c>
-      <c r="AH20">
-        <v>40</v>
-      </c>
       <c r="AI20">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AK20">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL20">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM20">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN20">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="AO20">
         <v>1000</v>
@@ -3224,484 +3314,484 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F21">
+        <v>1.6</v>
+      </c>
+      <c r="G21">
+        <v>1.73</v>
+      </c>
+      <c r="H21">
+        <v>5.5</v>
+      </c>
+      <c r="I21">
+        <v>7.6</v>
+      </c>
+      <c r="J21">
+        <v>3.95</v>
+      </c>
+      <c r="K21">
+        <v>4.7</v>
+      </c>
+      <c r="L21">
+        <v>1.39</v>
+      </c>
+      <c r="M21">
+        <v>1.05</v>
+      </c>
+      <c r="N21">
+        <v>3.85</v>
+      </c>
+      <c r="O21">
+        <v>1.28</v>
+      </c>
+      <c r="P21">
+        <v>1.99</v>
+      </c>
+      <c r="Q21">
+        <v>1.82</v>
+      </c>
+      <c r="R21">
+        <v>1.38</v>
+      </c>
+      <c r="S21">
+        <v>3.05</v>
+      </c>
+      <c r="T21">
+        <v>1.87</v>
+      </c>
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="G21">
-        <v>1.96</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <v>4.2</v>
-      </c>
-      <c r="J21">
-        <v>4.1</v>
-      </c>
-      <c r="K21">
-        <v>4.2</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1.04</v>
-      </c>
-      <c r="N21">
-        <v>5.3</v>
-      </c>
-      <c r="O21">
-        <v>1.21</v>
-      </c>
-      <c r="P21">
-        <v>2.46</v>
-      </c>
-      <c r="Q21">
-        <v>1.64</v>
-      </c>
-      <c r="R21">
-        <v>1.59</v>
-      </c>
-      <c r="S21">
-        <v>2.6</v>
-      </c>
-      <c r="T21">
-        <v>1.61</v>
-      </c>
-      <c r="U21">
-        <v>2.5</v>
-      </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X21">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y21">
+        <v>24</v>
+      </c>
+      <c r="Z21">
+        <v>60</v>
+      </c>
+      <c r="AA21">
+        <v>1000</v>
+      </c>
+      <c r="AB21">
+        <v>10.5</v>
+      </c>
+      <c r="AC21">
+        <v>12</v>
+      </c>
+      <c r="AD21">
+        <v>28</v>
+      </c>
+      <c r="AE21">
+        <v>100</v>
+      </c>
+      <c r="AF21">
+        <v>12</v>
+      </c>
+      <c r="AG21">
+        <v>12.5</v>
+      </c>
+      <c r="AH21">
+        <v>27</v>
+      </c>
+      <c r="AI21">
+        <v>100</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
         <v>21</v>
       </c>
-      <c r="Z21">
-        <v>34</v>
-      </c>
-      <c r="AA21">
-        <v>90</v>
-      </c>
-      <c r="AB21">
-        <v>13.5</v>
-      </c>
-      <c r="AC21">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD21">
-        <v>17</v>
-      </c>
-      <c r="AE21">
-        <v>42</v>
-      </c>
-      <c r="AF21">
-        <v>14.5</v>
-      </c>
-      <c r="AG21">
-        <v>11</v>
-      </c>
-      <c r="AH21">
-        <v>16.5</v>
-      </c>
-      <c r="AI21">
+      <c r="AL21">
         <v>44</v>
       </c>
-      <c r="AJ21">
-        <v>24</v>
-      </c>
-      <c r="AK21">
-        <v>18</v>
-      </c>
-      <c r="AL21">
-        <v>28</v>
-      </c>
       <c r="AM21">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN21">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AO21">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F22">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="G22">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="H22">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I22">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J22">
+        <v>3.9</v>
+      </c>
+      <c r="K22">
         <v>4.3</v>
       </c>
-      <c r="K22">
+      <c r="L22">
+        <v>1.27</v>
+      </c>
+      <c r="M22">
+        <v>1.04</v>
+      </c>
+      <c r="N22">
         <v>4.4</v>
       </c>
-      <c r="L22">
-        <v>1.19</v>
-      </c>
-      <c r="M22">
-        <v>1.02</v>
-      </c>
-      <c r="N22">
-        <v>7.8</v>
-      </c>
       <c r="O22">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="P22">
-        <v>3.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q22">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="R22">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="S22">
-        <v>2.06</v>
+        <v>2.68</v>
       </c>
       <c r="T22">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="U22">
-        <v>3.05</v>
+        <v>2.3</v>
       </c>
       <c r="V22">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W22">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="X22">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Y22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Z22">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AA22">
         <v>85</v>
       </c>
       <c r="AB22">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC22">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD22">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE22">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AF22">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI22">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ22">
+        <v>30</v>
+      </c>
+      <c r="AK22">
         <v>25</v>
       </c>
-      <c r="AK22">
-        <v>17</v>
-      </c>
       <c r="AL22">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AM22">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AN22">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AO22">
-        <v>19.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="G23">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H23">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="I23">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="J23">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="K23">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M23">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N23">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="O23">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="P23">
-        <v>2.66</v>
+        <v>1.93</v>
       </c>
       <c r="Q23">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="R23">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="S23">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="T23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="U23">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X23">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y23">
+        <v>10.5</v>
+      </c>
+      <c r="Z23">
+        <v>12</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>980</v>
+      </c>
+      <c r="AC23">
         <v>11.5</v>
       </c>
-      <c r="Z23">
-        <v>10.5</v>
-      </c>
-      <c r="AA23">
-        <v>14</v>
-      </c>
-      <c r="AB23">
-        <v>32</v>
-      </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>12.5</v>
       </c>
-      <c r="AD23">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AE23">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF23">
         <v>1000</v>
       </c>
       <c r="AG23">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AH23">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI23">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK23">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL23">
         <v>1000</v>
       </c>
       <c r="AM23">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN23">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO23">
-        <v>5.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="F24">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="G24">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H24">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I24">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J24">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K24">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M24">
         <v>1.06</v>
       </c>
       <c r="N24">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P24">
         <v>2.04</v>
       </c>
       <c r="Q24">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="R24">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S24">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="T24">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="U24">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y24">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA24">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB24">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC24">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD24">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE24">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF24">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG24">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH24">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI24">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ24">
         <v>21</v>
@@ -3710,138 +3800,138 @@
         <v>19.5</v>
       </c>
       <c r="AL24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM24">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN24">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO24">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="G25">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="H25">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="I25">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="J25">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K25">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M25">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O25">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P25">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q25">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="R25">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S25">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="T25">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U25">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X25">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y25">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z25">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA25">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC25">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD25">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE25">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG25">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH25">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI25">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK25">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL25">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM25">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN25">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO25">
         <v>1000</v>
@@ -3849,19 +3939,19 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F26">
         <v>2.4</v>
@@ -3873,22 +3963,22 @@
         <v>3.35</v>
       </c>
       <c r="I26">
+        <v>3.4</v>
+      </c>
+      <c r="J26">
         <v>3.45</v>
-      </c>
-      <c r="J26">
-        <v>3.4</v>
       </c>
       <c r="K26">
         <v>3.5</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M26">
         <v>1.08</v>
       </c>
       <c r="N26">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O26">
         <v>1.35</v>
@@ -3912,28 +4002,28 @@
         <v>2.14</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X26">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y26">
         <v>12.5</v>
       </c>
       <c r="Z26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA26">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB26">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC26">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD26">
         <v>14.5</v>
@@ -3942,10 +4032,10 @@
         <v>40</v>
       </c>
       <c r="AF26">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH26">
         <v>17.5</v>
@@ -3954,16 +4044,16 @@
         <v>55</v>
       </c>
       <c r="AJ26">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL26">
         <v>40</v>
       </c>
       <c r="AM26">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN26">
         <v>21</v>
@@ -3974,502 +4064,1877 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F27">
-        <v>1.96</v>
+        <v>1.2</v>
       </c>
       <c r="G27">
-        <v>2.08</v>
+        <v>1.21</v>
       </c>
       <c r="H27">
-        <v>4.3</v>
+        <v>24</v>
       </c>
       <c r="I27">
-        <v>5.2</v>
+        <v>26</v>
       </c>
       <c r="J27">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>3.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P27">
-        <v>1.79</v>
+        <v>2.76</v>
       </c>
       <c r="Q27">
-        <v>2.08</v>
+        <v>1.52</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="G28">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H28">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P28">
-        <v>1.59</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>2.44</v>
+        <v>1.63</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="G29">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="H29">
+        <v>3.9</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4.5</v>
+      </c>
+      <c r="K29">
+        <v>4.6</v>
+      </c>
+      <c r="L29">
+        <v>1.24</v>
+      </c>
+      <c r="M29">
+        <v>1.03</v>
+      </c>
+      <c r="N29">
+        <v>7.6</v>
+      </c>
+      <c r="O29">
+        <v>1.13</v>
+      </c>
+      <c r="P29">
+        <v>3.2</v>
+      </c>
+      <c r="Q29">
+        <v>1.42</v>
+      </c>
+      <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>2.06</v>
+      </c>
+      <c r="T29">
+        <v>1.46</v>
+      </c>
+      <c r="U29">
+        <v>3.05</v>
+      </c>
+      <c r="V29">
+        <v>1.33</v>
+      </c>
+      <c r="W29">
+        <v>2.1</v>
+      </c>
+      <c r="X29">
+        <v>34</v>
+      </c>
+      <c r="Y29">
+        <v>28</v>
+      </c>
+      <c r="Z29">
+        <v>38</v>
+      </c>
+      <c r="AA29">
+        <v>75</v>
+      </c>
+      <c r="AB29">
+        <v>18</v>
+      </c>
+      <c r="AC29">
+        <v>11.5</v>
+      </c>
+      <c r="AD29">
+        <v>17</v>
+      </c>
+      <c r="AE29">
+        <v>36</v>
+      </c>
+      <c r="AF29">
+        <v>17</v>
+      </c>
+      <c r="AG29">
         <v>10.5</v>
       </c>
-      <c r="I29">
-        <v>14</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>5.6</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>1.86</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
       <c r="AH29">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30">
+        <v>6.6</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>1.52</v>
+      </c>
+      <c r="I30">
+        <v>1.54</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5.1</v>
+      </c>
+      <c r="L30">
+        <v>1.28</v>
+      </c>
+      <c r="M30">
+        <v>1.03</v>
+      </c>
+      <c r="N30">
+        <v>5.9</v>
+      </c>
+      <c r="O30">
+        <v>1.18</v>
+      </c>
+      <c r="P30">
+        <v>2.74</v>
+      </c>
+      <c r="Q30">
+        <v>1.55</v>
+      </c>
+      <c r="R30">
+        <v>1.71</v>
+      </c>
+      <c r="S30">
+        <v>2.36</v>
+      </c>
+      <c r="T30">
+        <v>1.7</v>
+      </c>
+      <c r="U30">
+        <v>2.34</v>
+      </c>
+      <c r="V30">
+        <v>2.84</v>
+      </c>
+      <c r="W30">
+        <v>1.17</v>
+      </c>
+      <c r="X30">
+        <v>27</v>
+      </c>
+      <c r="Y30">
+        <v>12</v>
+      </c>
+      <c r="Z30">
+        <v>11.5</v>
+      </c>
+      <c r="AA30">
+        <v>15</v>
+      </c>
+      <c r="AB30">
+        <v>30</v>
+      </c>
+      <c r="AC30">
+        <v>11.5</v>
+      </c>
+      <c r="AD30">
+        <v>9.6</v>
+      </c>
+      <c r="AE30">
+        <v>13.5</v>
+      </c>
+      <c r="AF30">
+        <v>60</v>
+      </c>
+      <c r="AG30">
+        <v>24</v>
+      </c>
+      <c r="AH30">
+        <v>19</v>
+      </c>
+      <c r="AI30">
+        <v>25</v>
+      </c>
+      <c r="AJ30">
+        <v>180</v>
+      </c>
+      <c r="AK30">
+        <v>75</v>
+      </c>
+      <c r="AL30">
+        <v>65</v>
+      </c>
+      <c r="AM30">
+        <v>80</v>
+      </c>
+      <c r="AN30">
+        <v>65</v>
+      </c>
+      <c r="AO30">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31">
+        <v>1.9</v>
+      </c>
+      <c r="G31">
+        <v>1.91</v>
+      </c>
+      <c r="H31">
+        <v>4.6</v>
+      </c>
+      <c r="I31">
+        <v>4.7</v>
+      </c>
+      <c r="J31">
+        <v>3.85</v>
+      </c>
+      <c r="K31">
+        <v>3.9</v>
+      </c>
+      <c r="L31">
+        <v>1.41</v>
+      </c>
+      <c r="M31">
+        <v>1.06</v>
+      </c>
+      <c r="N31">
+        <v>3.95</v>
+      </c>
+      <c r="O31">
+        <v>1.31</v>
+      </c>
+      <c r="P31">
+        <v>2.02</v>
+      </c>
+      <c r="Q31">
+        <v>1.93</v>
+      </c>
+      <c r="R31">
+        <v>1.39</v>
+      </c>
+      <c r="S31">
+        <v>3.35</v>
+      </c>
+      <c r="T31">
+        <v>1.84</v>
+      </c>
+      <c r="U31">
+        <v>2.14</v>
+      </c>
+      <c r="V31">
+        <v>1.27</v>
+      </c>
+      <c r="W31">
+        <v>2.08</v>
+      </c>
+      <c r="X31">
+        <v>15</v>
+      </c>
+      <c r="Y31">
+        <v>17</v>
+      </c>
+      <c r="Z31">
+        <v>34</v>
+      </c>
+      <c r="AA31">
+        <v>120</v>
+      </c>
+      <c r="AB31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>8.4</v>
+      </c>
+      <c r="AD31">
+        <v>17.5</v>
+      </c>
+      <c r="AE31">
+        <v>60</v>
+      </c>
+      <c r="AF31">
+        <v>12</v>
+      </c>
+      <c r="AG31">
+        <v>10</v>
+      </c>
+      <c r="AH31">
+        <v>18.5</v>
+      </c>
+      <c r="AI31">
+        <v>65</v>
+      </c>
+      <c r="AJ31">
+        <v>22</v>
+      </c>
+      <c r="AK31">
+        <v>19.5</v>
+      </c>
+      <c r="AL31">
+        <v>34</v>
+      </c>
+      <c r="AM31">
+        <v>100</v>
+      </c>
+      <c r="AN31">
+        <v>12.5</v>
+      </c>
+      <c r="AO31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32">
+        <v>1.95</v>
+      </c>
+      <c r="G32">
+        <v>1.96</v>
+      </c>
+      <c r="H32">
+        <v>4.5</v>
+      </c>
+      <c r="I32">
+        <v>4.6</v>
+      </c>
+      <c r="J32">
+        <v>3.75</v>
+      </c>
+      <c r="K32">
+        <v>3.8</v>
+      </c>
+      <c r="L32">
+        <v>1.41</v>
+      </c>
+      <c r="M32">
+        <v>1.06</v>
+      </c>
+      <c r="N32">
+        <v>4.2</v>
+      </c>
+      <c r="O32">
+        <v>1.29</v>
+      </c>
+      <c r="P32">
+        <v>2.08</v>
+      </c>
+      <c r="Q32">
+        <v>1.87</v>
+      </c>
+      <c r="R32">
+        <v>1.42</v>
+      </c>
+      <c r="S32">
+        <v>3.2</v>
+      </c>
+      <c r="T32">
+        <v>1.78</v>
+      </c>
+      <c r="U32">
+        <v>2.18</v>
+      </c>
+      <c r="V32">
+        <v>1.28</v>
+      </c>
+      <c r="W32">
+        <v>2.04</v>
+      </c>
+      <c r="X32">
+        <v>15.5</v>
+      </c>
+      <c r="Y32">
+        <v>17.5</v>
+      </c>
+      <c r="Z32">
+        <v>34</v>
+      </c>
+      <c r="AA32">
+        <v>95</v>
+      </c>
+      <c r="AB32">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC32">
+        <v>8.6</v>
+      </c>
+      <c r="AD32">
+        <v>17</v>
+      </c>
+      <c r="AE32">
+        <v>55</v>
+      </c>
+      <c r="AF32">
+        <v>12</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32">
+        <v>18</v>
+      </c>
+      <c r="AI32">
+        <v>60</v>
+      </c>
+      <c r="AJ32">
+        <v>22</v>
+      </c>
+      <c r="AK32">
+        <v>19</v>
+      </c>
+      <c r="AL32">
+        <v>34</v>
+      </c>
+      <c r="AM32">
+        <v>95</v>
+      </c>
+      <c r="AN32">
+        <v>12</v>
+      </c>
+      <c r="AO32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33">
+        <v>1.88</v>
+      </c>
+      <c r="G33">
+        <v>1.95</v>
+      </c>
+      <c r="H33">
+        <v>4.4</v>
+      </c>
+      <c r="I33">
+        <v>4.7</v>
+      </c>
+      <c r="J33">
+        <v>3.65</v>
+      </c>
+      <c r="K33">
+        <v>3.9</v>
+      </c>
+      <c r="L33">
+        <v>1.44</v>
+      </c>
+      <c r="M33">
+        <v>1.06</v>
+      </c>
+      <c r="N33">
+        <v>3.65</v>
+      </c>
+      <c r="O33">
+        <v>1.34</v>
+      </c>
+      <c r="P33">
+        <v>1.91</v>
+      </c>
+      <c r="Q33">
+        <v>1.98</v>
+      </c>
+      <c r="R33">
+        <v>1.34</v>
+      </c>
+      <c r="S33">
+        <v>3.55</v>
+      </c>
+      <c r="T33">
+        <v>1.83</v>
+      </c>
+      <c r="U33">
+        <v>2.04</v>
+      </c>
+      <c r="V33">
+        <v>1.27</v>
+      </c>
+      <c r="W33">
+        <v>2.04</v>
+      </c>
+      <c r="X33">
+        <v>16</v>
+      </c>
+      <c r="Y33">
+        <v>980</v>
+      </c>
+      <c r="Z33">
+        <v>980</v>
+      </c>
+      <c r="AA33">
+        <v>130</v>
+      </c>
+      <c r="AB33">
+        <v>10</v>
+      </c>
+      <c r="AC33">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33">
+        <v>980</v>
+      </c>
+      <c r="AE33">
+        <v>65</v>
+      </c>
+      <c r="AF33">
+        <v>12</v>
+      </c>
+      <c r="AG33">
+        <v>980</v>
+      </c>
+      <c r="AH33">
+        <v>980</v>
+      </c>
+      <c r="AI33">
+        <v>70</v>
+      </c>
+      <c r="AJ33">
+        <v>980</v>
+      </c>
+      <c r="AK33">
+        <v>22</v>
+      </c>
+      <c r="AL33">
+        <v>980</v>
+      </c>
+      <c r="AM33">
+        <v>130</v>
+      </c>
+      <c r="AN33">
+        <v>980</v>
+      </c>
+      <c r="AO33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34">
+        <v>3.3</v>
+      </c>
+      <c r="G34">
+        <v>3.5</v>
+      </c>
+      <c r="H34">
+        <v>2.5</v>
+      </c>
+      <c r="I34">
+        <v>2.66</v>
+      </c>
+      <c r="J34">
+        <v>3.05</v>
+      </c>
+      <c r="K34">
+        <v>3.25</v>
+      </c>
+      <c r="L34">
+        <v>1.58</v>
+      </c>
+      <c r="M34">
+        <v>1.12</v>
+      </c>
+      <c r="N34">
+        <v>2.78</v>
+      </c>
+      <c r="O34">
+        <v>1.51</v>
+      </c>
+      <c r="P34">
+        <v>1.6</v>
+      </c>
+      <c r="Q34">
+        <v>2.5</v>
+      </c>
+      <c r="R34">
+        <v>1.22</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>2.04</v>
+      </c>
+      <c r="U34">
+        <v>1.84</v>
+      </c>
+      <c r="V34">
+        <v>1.6</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>15.5</v>
+      </c>
+      <c r="AA34">
+        <v>1000</v>
+      </c>
+      <c r="AB34">
+        <v>10.5</v>
+      </c>
+      <c r="AC34">
+        <v>7.2</v>
+      </c>
+      <c r="AD34">
+        <v>13.5</v>
+      </c>
+      <c r="AE34">
+        <v>1000</v>
+      </c>
+      <c r="AF34">
+        <v>26</v>
+      </c>
+      <c r="AG34">
+        <v>16</v>
+      </c>
+      <c r="AH34">
+        <v>23</v>
+      </c>
+      <c r="AI34">
+        <v>1000</v>
+      </c>
+      <c r="AJ34">
+        <v>1000</v>
+      </c>
+      <c r="AK34">
+        <v>65</v>
+      </c>
+      <c r="AL34">
+        <v>1000</v>
+      </c>
+      <c r="AM34">
+        <v>200</v>
+      </c>
+      <c r="AN34">
+        <v>75</v>
+      </c>
+      <c r="AO34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35">
+        <v>1.36</v>
+      </c>
+      <c r="G35">
+        <v>1.39</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>12.5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5.5</v>
+      </c>
+      <c r="L35">
+        <v>1.41</v>
+      </c>
+      <c r="M35">
+        <v>1.06</v>
+      </c>
+      <c r="N35">
+        <v>3.9</v>
+      </c>
+      <c r="O35">
+        <v>1.3</v>
+      </c>
+      <c r="P35">
+        <v>2.04</v>
+      </c>
+      <c r="Q35">
+        <v>1.89</v>
+      </c>
+      <c r="R35">
+        <v>1.39</v>
+      </c>
+      <c r="S35">
+        <v>3.25</v>
+      </c>
+      <c r="T35">
+        <v>2.28</v>
+      </c>
+      <c r="U35">
+        <v>1.68</v>
+      </c>
+      <c r="V35">
+        <v>1.08</v>
+      </c>
+      <c r="W35">
+        <v>3.55</v>
+      </c>
+      <c r="X35">
+        <v>19</v>
+      </c>
+      <c r="Y35">
+        <v>1000</v>
+      </c>
+      <c r="Z35">
+        <v>130</v>
+      </c>
+      <c r="AA35">
+        <v>560</v>
+      </c>
+      <c r="AB35">
+        <v>7.6</v>
+      </c>
+      <c r="AC35">
+        <v>1000</v>
+      </c>
+      <c r="AD35">
+        <v>980</v>
+      </c>
+      <c r="AE35">
+        <v>260</v>
+      </c>
+      <c r="AF35">
+        <v>7.4</v>
+      </c>
+      <c r="AG35">
+        <v>1000</v>
+      </c>
+      <c r="AH35">
+        <v>980</v>
+      </c>
+      <c r="AI35">
+        <v>230</v>
+      </c>
+      <c r="AJ35">
+        <v>11</v>
+      </c>
+      <c r="AK35">
+        <v>980</v>
+      </c>
+      <c r="AL35">
+        <v>980</v>
+      </c>
+      <c r="AM35">
+        <v>290</v>
+      </c>
+      <c r="AN35">
+        <v>6.8</v>
+      </c>
+      <c r="AO35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36">
+        <v>2.06</v>
+      </c>
+      <c r="G36">
+        <v>2.14</v>
+      </c>
+      <c r="H36">
+        <v>4.2</v>
+      </c>
+      <c r="I36">
+        <v>4.7</v>
+      </c>
+      <c r="J36">
+        <v>3.25</v>
+      </c>
+      <c r="K36">
+        <v>3.35</v>
+      </c>
+      <c r="L36">
+        <v>1.56</v>
+      </c>
+      <c r="M36">
+        <v>1.11</v>
+      </c>
+      <c r="N36">
+        <v>2.82</v>
+      </c>
+      <c r="O36">
+        <v>1.47</v>
+      </c>
+      <c r="P36">
+        <v>1.62</v>
+      </c>
+      <c r="Q36">
+        <v>2.4</v>
+      </c>
+      <c r="R36">
+        <v>1.22</v>
+      </c>
+      <c r="S36">
+        <v>4.8</v>
+      </c>
+      <c r="T36">
+        <v>2.08</v>
+      </c>
+      <c r="U36">
+        <v>1.79</v>
+      </c>
+      <c r="V36">
+        <v>1.27</v>
+      </c>
+      <c r="W36">
+        <v>1.87</v>
+      </c>
+      <c r="X36">
+        <v>11</v>
+      </c>
+      <c r="Y36">
+        <v>14</v>
+      </c>
+      <c r="Z36">
+        <v>32</v>
+      </c>
+      <c r="AA36">
+        <v>110</v>
+      </c>
+      <c r="AB36">
+        <v>8.6</v>
+      </c>
+      <c r="AC36">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD36">
+        <v>20</v>
+      </c>
+      <c r="AE36">
+        <v>70</v>
+      </c>
+      <c r="AF36">
+        <v>13</v>
+      </c>
+      <c r="AG36">
+        <v>13</v>
+      </c>
+      <c r="AH36">
+        <v>27</v>
+      </c>
+      <c r="AI36">
+        <v>100</v>
+      </c>
+      <c r="AJ36">
+        <v>29</v>
+      </c>
+      <c r="AK36">
+        <v>30</v>
+      </c>
+      <c r="AL36">
+        <v>55</v>
+      </c>
+      <c r="AM36">
+        <v>190</v>
+      </c>
+      <c r="AN36">
+        <v>23</v>
+      </c>
+      <c r="AO36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37">
+        <v>1.01</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>1.01</v>
+      </c>
+      <c r="I37">
+        <v>1000</v>
+      </c>
+      <c r="J37">
+        <v>1.02</v>
+      </c>
+      <c r="K37">
+        <v>950</v>
+      </c>
+      <c r="L37">
+        <v>1.01</v>
+      </c>
+      <c r="M37">
+        <v>1.01</v>
+      </c>
+      <c r="N37">
+        <v>1.11</v>
+      </c>
+      <c r="O37">
+        <v>1.01</v>
+      </c>
+      <c r="P37">
+        <v>1.1</v>
+      </c>
+      <c r="Q37">
+        <v>1.01</v>
+      </c>
+      <c r="R37">
+        <v>1.1</v>
+      </c>
+      <c r="S37">
+        <v>1.36</v>
+      </c>
+      <c r="T37">
+        <v>1.03</v>
+      </c>
+      <c r="U37">
+        <v>1.03</v>
+      </c>
+      <c r="V37">
+        <v>1.01</v>
+      </c>
+      <c r="W37">
+        <v>1.01</v>
+      </c>
+      <c r="X37">
+        <v>1000</v>
+      </c>
+      <c r="Y37">
+        <v>1000</v>
+      </c>
+      <c r="Z37">
+        <v>1000</v>
+      </c>
+      <c r="AA37">
+        <v>1000</v>
+      </c>
+      <c r="AB37">
+        <v>1000</v>
+      </c>
+      <c r="AC37">
+        <v>1000</v>
+      </c>
+      <c r="AD37">
+        <v>1000</v>
+      </c>
+      <c r="AE37">
+        <v>1000</v>
+      </c>
+      <c r="AF37">
+        <v>1000</v>
+      </c>
+      <c r="AG37">
+        <v>1000</v>
+      </c>
+      <c r="AH37">
+        <v>1000</v>
+      </c>
+      <c r="AI37">
+        <v>1000</v>
+      </c>
+      <c r="AJ37">
+        <v>1000</v>
+      </c>
+      <c r="AK37">
+        <v>1000</v>
+      </c>
+      <c r="AL37">
+        <v>1000</v>
+      </c>
+      <c r="AM37">
+        <v>1000</v>
+      </c>
+      <c r="AN37">
+        <v>1000</v>
+      </c>
+      <c r="AO37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30">
-        <v>2.08</v>
-      </c>
-      <c r="G30">
-        <v>2.26</v>
-      </c>
-      <c r="H30">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38">
+        <v>2.3</v>
+      </c>
+      <c r="G38">
+        <v>2.76</v>
+      </c>
+      <c r="H38">
+        <v>2.92</v>
+      </c>
+      <c r="I38">
+        <v>3.35</v>
+      </c>
+      <c r="J38">
+        <v>3.05</v>
+      </c>
+      <c r="K38">
+        <v>4.5</v>
+      </c>
+      <c r="L38">
+        <v>1.34</v>
+      </c>
+      <c r="M38">
+        <v>1.05</v>
+      </c>
+      <c r="N38">
+        <v>3.35</v>
+      </c>
+      <c r="O38">
+        <v>1.29</v>
+      </c>
+      <c r="P38">
+        <v>1.95</v>
+      </c>
+      <c r="Q38">
+        <v>1.84</v>
+      </c>
+      <c r="R38">
+        <v>1.37</v>
+      </c>
+      <c r="S38">
+        <v>3.15</v>
+      </c>
+      <c r="T38">
+        <v>1.7</v>
+      </c>
+      <c r="U38">
+        <v>2.12</v>
+      </c>
+      <c r="V38">
+        <v>1.42</v>
+      </c>
+      <c r="W38">
+        <v>1.6</v>
+      </c>
+      <c r="X38">
+        <v>1000</v>
+      </c>
+      <c r="Y38">
+        <v>1000</v>
+      </c>
+      <c r="Z38">
+        <v>1000</v>
+      </c>
+      <c r="AA38">
+        <v>1000</v>
+      </c>
+      <c r="AB38">
+        <v>1000</v>
+      </c>
+      <c r="AC38">
+        <v>1000</v>
+      </c>
+      <c r="AD38">
+        <v>1000</v>
+      </c>
+      <c r="AE38">
+        <v>1000</v>
+      </c>
+      <c r="AF38">
+        <v>1000</v>
+      </c>
+      <c r="AG38">
+        <v>1000</v>
+      </c>
+      <c r="AH38">
+        <v>1000</v>
+      </c>
+      <c r="AI38">
+        <v>1000</v>
+      </c>
+      <c r="AJ38">
+        <v>1000</v>
+      </c>
+      <c r="AK38">
+        <v>1000</v>
+      </c>
+      <c r="AL38">
+        <v>1000</v>
+      </c>
+      <c r="AM38">
+        <v>1000</v>
+      </c>
+      <c r="AN38">
+        <v>1000</v>
+      </c>
+      <c r="AO38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39">
+        <v>1.86</v>
+      </c>
+      <c r="G39">
+        <v>1.98</v>
+      </c>
+      <c r="H39">
+        <v>4.8</v>
+      </c>
+      <c r="I39">
+        <v>5.3</v>
+      </c>
+      <c r="J39">
+        <v>3.4</v>
+      </c>
+      <c r="K39">
+        <v>3.75</v>
+      </c>
+      <c r="L39">
+        <v>1.47</v>
+      </c>
+      <c r="M39">
+        <v>1.09</v>
+      </c>
+      <c r="N39">
+        <v>3.15</v>
+      </c>
+      <c r="O39">
+        <v>1.41</v>
+      </c>
+      <c r="P39">
+        <v>1.72</v>
+      </c>
+      <c r="Q39">
+        <v>2.2</v>
+      </c>
+      <c r="R39">
+        <v>1.28</v>
+      </c>
+      <c r="S39">
         <v>4</v>
       </c>
-      <c r="I30">
-        <v>4.5</v>
-      </c>
-      <c r="J30">
-        <v>3.2</v>
-      </c>
-      <c r="K30">
+      <c r="T39">
+        <v>1.98</v>
+      </c>
+      <c r="U39">
+        <v>1.9</v>
+      </c>
+      <c r="V39">
+        <v>1.23</v>
+      </c>
+      <c r="W39">
+        <v>2.02</v>
+      </c>
+      <c r="X39">
+        <v>14</v>
+      </c>
+      <c r="Y39">
+        <v>17</v>
+      </c>
+      <c r="Z39">
+        <v>980</v>
+      </c>
+      <c r="AA39">
+        <v>160</v>
+      </c>
+      <c r="AB39">
+        <v>7.6</v>
+      </c>
+      <c r="AC39">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD39">
+        <v>980</v>
+      </c>
+      <c r="AE39">
+        <v>80</v>
+      </c>
+      <c r="AF39">
+        <v>11</v>
+      </c>
+      <c r="AG39">
+        <v>10.5</v>
+      </c>
+      <c r="AH39">
+        <v>980</v>
+      </c>
+      <c r="AI39">
+        <v>100</v>
+      </c>
+      <c r="AJ39">
+        <v>980</v>
+      </c>
+      <c r="AK39">
+        <v>980</v>
+      </c>
+      <c r="AL39">
+        <v>980</v>
+      </c>
+      <c r="AM39">
+        <v>170</v>
+      </c>
+      <c r="AN39">
+        <v>1000</v>
+      </c>
+      <c r="AO39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40">
+        <v>2.12</v>
+      </c>
+      <c r="G40">
+        <v>2.18</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4.4</v>
+      </c>
+      <c r="J40">
+        <v>3.3</v>
+      </c>
+      <c r="K40">
         <v>3.45</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>1.61</v>
-      </c>
-      <c r="Q30">
-        <v>2.16</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
+      <c r="L40">
+        <v>1.5</v>
+      </c>
+      <c r="M40">
+        <v>1.09</v>
+      </c>
+      <c r="N40">
+        <v>3.15</v>
+      </c>
+      <c r="O40">
+        <v>1.42</v>
+      </c>
+      <c r="P40">
+        <v>1.72</v>
+      </c>
+      <c r="Q40">
+        <v>2.24</v>
+      </c>
+      <c r="R40">
+        <v>1.27</v>
+      </c>
+      <c r="S40">
+        <v>4.2</v>
+      </c>
+      <c r="T40">
+        <v>1.98</v>
+      </c>
+      <c r="U40">
+        <v>1.91</v>
+      </c>
+      <c r="V40">
+        <v>1.3</v>
+      </c>
+      <c r="W40">
+        <v>1.85</v>
+      </c>
+      <c r="X40">
+        <v>11.5</v>
+      </c>
+      <c r="Y40">
+        <v>13</v>
+      </c>
+      <c r="Z40">
+        <v>27</v>
+      </c>
+      <c r="AA40">
+        <v>100</v>
+      </c>
+      <c r="AB40">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC40">
+        <v>7.6</v>
+      </c>
+      <c r="AD40">
+        <v>17.5</v>
+      </c>
+      <c r="AE40">
+        <v>65</v>
+      </c>
+      <c r="AF40">
+        <v>12</v>
+      </c>
+      <c r="AG40">
+        <v>11.5</v>
+      </c>
+      <c r="AH40">
+        <v>22</v>
+      </c>
+      <c r="AI40">
+        <v>80</v>
+      </c>
+      <c r="AJ40">
+        <v>26</v>
+      </c>
+      <c r="AK40">
+        <v>26</v>
+      </c>
+      <c r="AL40">
+        <v>48</v>
+      </c>
+      <c r="AM40">
+        <v>140</v>
+      </c>
+      <c r="AN40">
+        <v>22</v>
+      </c>
+      <c r="AO40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41">
+        <v>1.7</v>
+      </c>
+      <c r="G41">
+        <v>2.06</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>3.45</v>
+      </c>
+      <c r="K41">
+        <v>6.2</v>
+      </c>
+      <c r="L41">
+        <v>1.01</v>
+      </c>
+      <c r="M41">
+        <v>1.01</v>
+      </c>
+      <c r="N41">
+        <v>1.01</v>
+      </c>
+      <c r="O41">
+        <v>1.34</v>
+      </c>
+      <c r="P41">
+        <v>1.69</v>
+      </c>
+      <c r="Q41">
+        <v>1.84</v>
+      </c>
+      <c r="R41">
+        <v>1.27</v>
+      </c>
+      <c r="S41">
+        <v>3.05</v>
+      </c>
+      <c r="T41">
+        <v>1.01</v>
+      </c>
+      <c r="U41">
+        <v>1.01</v>
+      </c>
+      <c r="V41">
+        <v>1.16</v>
+      </c>
+      <c r="W41">
+        <v>1.94</v>
+      </c>
+      <c r="X41">
+        <v>1000</v>
+      </c>
+      <c r="Y41">
+        <v>1000</v>
+      </c>
+      <c r="Z41">
+        <v>1000</v>
+      </c>
+      <c r="AA41">
+        <v>1000</v>
+      </c>
+      <c r="AB41">
+        <v>1000</v>
+      </c>
+      <c r="AC41">
+        <v>1000</v>
+      </c>
+      <c r="AD41">
+        <v>1000</v>
+      </c>
+      <c r="AE41">
+        <v>1000</v>
+      </c>
+      <c r="AF41">
+        <v>1000</v>
+      </c>
+      <c r="AG41">
+        <v>1000</v>
+      </c>
+      <c r="AH41">
+        <v>1000</v>
+      </c>
+      <c r="AI41">
+        <v>1000</v>
+      </c>
+      <c r="AJ41">
+        <v>1000</v>
+      </c>
+      <c r="AK41">
+        <v>1000</v>
+      </c>
+      <c r="AL41">
+        <v>1000</v>
+      </c>
+      <c r="AM41">
+        <v>1000</v>
+      </c>
+      <c r="AN41">
+        <v>1000</v>
+      </c>
+      <c r="AO41">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="151">
   <si>
     <t>League</t>
   </si>
@@ -139,6 +139,9 @@
     <t>Odd_CS_Goleada_A_Lay</t>
   </si>
   <si>
+    <t>Tunisian Ligue Professionelle 1</t>
+  </si>
+  <si>
     <t>Czech 1 Liga</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>2025-10-01</t>
   </si>
   <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -211,6 +217,12 @@
     <t>23:30:00</t>
   </si>
   <si>
+    <t>Avenir S Marsa</t>
+  </si>
+  <si>
+    <t>Club Sportif Sfaxien</t>
+  </si>
+  <si>
     <t>Pardubice</t>
   </si>
   <si>
@@ -223,22 +235,25 @@
     <t>FC Kosice</t>
   </si>
   <si>
+    <t>Union St Gilloise</t>
+  </si>
+  <si>
     <t>Qarabag FK</t>
   </si>
   <si>
-    <t>Union St Gilloise</t>
-  </si>
-  <si>
     <t>Union Omaha</t>
   </si>
   <si>
     <t>KFUM Oslo</t>
   </si>
   <si>
+    <t>Verl</t>
+  </si>
+  <si>
     <t>1860 Munich</t>
   </si>
   <si>
-    <t>Verl</t>
+    <t>Rot-Weiss Essen</t>
   </si>
   <si>
     <t>VfL Osnabruck</t>
@@ -247,9 +262,6 @@
     <t>SSV Ulm</t>
   </si>
   <si>
-    <t>Rot-Weiss Essen</t>
-  </si>
-  <si>
     <t>El Paso Locomotive FC</t>
   </si>
   <si>
@@ -265,42 +277,42 @@
     <t>Carrarese</t>
   </si>
   <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
     <t>Brackley Town</t>
   </si>
   <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
     <t>Altrincham</t>
   </si>
   <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
     <t>Boston Utd</t>
   </si>
   <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
     <t>York City</t>
   </si>
   <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
     <t>Villarreal</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
@@ -331,6 +343,12 @@
     <t>Sacramento Republic</t>
   </si>
   <si>
+    <t>Sportive De Tunis</t>
+  </si>
+  <si>
+    <t>US Monastirienne</t>
+  </si>
+  <si>
     <t>Banik Ostrava</t>
   </si>
   <si>
@@ -343,22 +361,25 @@
     <t>Dunajska Streda</t>
   </si>
   <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
     <t>FC Copenhagen</t>
   </si>
   <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
     <t>Portland Hearts of Pine</t>
   </si>
   <si>
     <t>Fredrikstad</t>
   </si>
   <si>
+    <t>Ingolstadt</t>
+  </si>
+  <si>
     <t>Viktoria Koln</t>
   </si>
   <si>
-    <t>Ingolstadt</t>
+    <t>Hoffenheim II</t>
   </si>
   <si>
     <t>Jahn Regensburg</t>
@@ -367,9 +388,6 @@
     <t>Schweinfurt</t>
   </si>
   <si>
-    <t>Hoffenheim II</t>
-  </si>
-  <si>
     <t>Oakland Roots</t>
   </si>
   <si>
@@ -385,40 +403,40 @@
     <t>Modena</t>
   </si>
   <si>
+    <t>FC Halifax Town</t>
+  </si>
+  <si>
     <t>Wealdstone</t>
   </si>
   <si>
-    <t>FC Halifax Town</t>
-  </si>
-  <si>
     <t>Tamworth FC</t>
   </si>
   <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
     <t>Forest Green</t>
   </si>
   <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
     <t>Scunthorpe</t>
   </si>
   <si>
+    <t>PSV</t>
+  </si>
+  <si>
     <t>Juventus</t>
   </si>
   <si>
     <t>Olympiakos</t>
   </si>
   <si>
-    <t>PSV</t>
-  </si>
-  <si>
     <t>Paris St-G</t>
   </si>
   <si>
+    <t>Athletic Bilbao</t>
+  </si>
+  <si>
     <t>Man City</t>
-  </si>
-  <si>
-    <t>Athletic Bilbao</t>
   </si>
   <si>
     <t>Sporting Lisbon</t>
@@ -806,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,106 +960,106 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F2">
-        <v>2.7</v>
+        <v>8.6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="I2">
-        <v>2.74</v>
+        <v>1.6</v>
       </c>
       <c r="J2">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L2">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="M2">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N2">
-        <v>4.1</v>
+        <v>2.68</v>
       </c>
       <c r="O2">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="P2">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="Q2">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="R2">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="S2">
-        <v>2.92</v>
+        <v>4.8</v>
       </c>
       <c r="T2">
-        <v>1.64</v>
+        <v>2.48</v>
       </c>
       <c r="U2">
-        <v>2.26</v>
+        <v>1.54</v>
       </c>
       <c r="V2">
-        <v>1.58</v>
+        <v>2.66</v>
       </c>
       <c r="W2">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="X2">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="Y2">
-        <v>15.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z2">
+        <v>7.6</v>
+      </c>
+      <c r="AA2">
+        <v>14.5</v>
+      </c>
+      <c r="AB2">
         <v>22</v>
-      </c>
-      <c r="AA2">
-        <v>1000</v>
-      </c>
-      <c r="AB2">
-        <v>16.5</v>
       </c>
       <c r="AC2">
         <v>10.5</v>
       </c>
       <c r="AD2">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE2">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF2">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG2">
-        <v>15.5</v>
+        <v>95</v>
       </c>
       <c r="AH2">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AI2">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ2">
         <v>1000</v>
@@ -1059,81 +1077,81 @@
         <v>1000</v>
       </c>
       <c r="AO2">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F3">
-        <v>1.37</v>
+        <v>2.88</v>
       </c>
       <c r="G3">
+        <v>3.4</v>
+      </c>
+      <c r="H3">
+        <v>3.05</v>
+      </c>
+      <c r="I3">
+        <v>3.6</v>
+      </c>
+      <c r="J3">
+        <v>2.46</v>
+      </c>
+      <c r="K3">
+        <v>2.8</v>
+      </c>
+      <c r="L3">
+        <v>1.77</v>
+      </c>
+      <c r="M3">
+        <v>1.2</v>
+      </c>
+      <c r="N3">
+        <v>2.06</v>
+      </c>
+      <c r="O3">
+        <v>1.75</v>
+      </c>
+      <c r="P3">
+        <v>1.31</v>
+      </c>
+      <c r="Q3">
+        <v>3.7</v>
+      </c>
+      <c r="R3">
+        <v>1.11</v>
+      </c>
+      <c r="S3">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T3">
+        <v>2.4</v>
+      </c>
+      <c r="U3">
         <v>1.56</v>
       </c>
-      <c r="H3">
-        <v>7.6</v>
-      </c>
-      <c r="I3">
-        <v>1000</v>
-      </c>
-      <c r="J3">
-        <v>4.1</v>
-      </c>
-      <c r="K3">
-        <v>7.2</v>
-      </c>
-      <c r="L3">
-        <v>1.31</v>
-      </c>
-      <c r="M3">
-        <v>1.01</v>
-      </c>
-      <c r="N3">
-        <v>1.11</v>
-      </c>
-      <c r="O3">
-        <v>1.3</v>
-      </c>
-      <c r="P3">
-        <v>1.9</v>
-      </c>
-      <c r="Q3">
-        <v>1.85</v>
-      </c>
-      <c r="R3">
-        <v>1.18</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>1.03</v>
-      </c>
-      <c r="U3">
-        <v>1.03</v>
-      </c>
       <c r="V3">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="W3">
-        <v>2.78</v>
+        <v>1.41</v>
       </c>
       <c r="X3">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="Y3">
         <v>1000</v>
@@ -1148,7 +1166,7 @@
         <v>1000</v>
       </c>
       <c r="AC3">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD3">
         <v>1000</v>
@@ -1157,7 +1175,7 @@
         <v>1000</v>
       </c>
       <c r="AF3">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG3">
         <v>1000</v>
@@ -1192,76 +1210,76 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>2.74</v>
       </c>
       <c r="H4">
-        <v>2.06</v>
+        <v>2.78</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="J4">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M4">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="O4">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P4">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="Q4">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R4">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="S4">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U4">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V4">
+        <v>1.52</v>
+      </c>
+      <c r="W4">
         <v>1.58</v>
       </c>
-      <c r="W4">
-        <v>1.32</v>
-      </c>
       <c r="X4">
         <v>1000</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z4">
         <v>1000</v>
@@ -1270,13 +1288,13 @@
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC4">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD4">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE4">
         <v>1000</v>
@@ -1285,10 +1303,10 @@
         <v>1000</v>
       </c>
       <c r="AG4">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI4">
         <v>1000</v>
@@ -1303,13 +1321,13 @@
         <v>1000</v>
       </c>
       <c r="AM4">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN4">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO4">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1317,121 +1335,121 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>3.05</v>
+        <v>1.69</v>
       </c>
       <c r="G5">
-        <v>3.55</v>
+        <v>1.76</v>
       </c>
       <c r="H5">
-        <v>2.14</v>
+        <v>5.3</v>
       </c>
       <c r="I5">
-        <v>2.38</v>
+        <v>6.2</v>
       </c>
       <c r="J5">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K5">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L5">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="O5">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P5">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="Q5">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="R5">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="S5">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="T5">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="U5">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="V5">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="W5">
-        <v>1.39</v>
+        <v>2.3</v>
       </c>
       <c r="X5">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y5">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z5">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA5">
         <v>1000</v>
       </c>
       <c r="AB5">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC5">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD5">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE5">
         <v>1000</v>
       </c>
       <c r="AF5">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG5">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH5">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AI5">
         <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK5">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL5">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM5">
         <v>1000</v>
       </c>
       <c r="AN5">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO5">
         <v>1000</v>
@@ -1439,58 +1457,58 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F6">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G6">
-        <v>2.82</v>
+        <v>3.65</v>
       </c>
       <c r="H6">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="I6">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="J6">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L6">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M6">
         <v>1.06</v>
       </c>
       <c r="N6">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P6">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q6">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R6">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S6">
         <v>3.15</v>
@@ -1499,67 +1517,67 @@
         <v>1.7</v>
       </c>
       <c r="U6">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="V6">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="W6">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="X6">
+        <v>16</v>
+      </c>
+      <c r="Y6">
+        <v>11.5</v>
+      </c>
+      <c r="Z6">
         <v>15.5</v>
       </c>
-      <c r="Y6">
-        <v>12.5</v>
-      </c>
-      <c r="Z6">
-        <v>18.5</v>
-      </c>
       <c r="AA6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB6">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC6">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE6">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AF6">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AG6">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AJ6">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AK6">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AL6">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AM6">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN6">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO6">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1567,124 +1585,124 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F7">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="G7">
         <v>3.75</v>
       </c>
       <c r="H7">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J7">
         <v>3.85</v>
       </c>
       <c r="K7">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M7">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P7">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q7">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="R7">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="S7">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="T7">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U7">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="V7">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W7">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X7">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Z7">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AA7">
+        <v>900</v>
+      </c>
+      <c r="AB7">
+        <v>38</v>
+      </c>
+      <c r="AC7">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>25</v>
+      </c>
+      <c r="AE7">
+        <v>50</v>
+      </c>
+      <c r="AF7">
+        <v>85</v>
+      </c>
+      <c r="AG7">
+        <v>32</v>
+      </c>
+      <c r="AH7">
         <v>26</v>
       </c>
-      <c r="AB7">
-        <v>16</v>
-      </c>
-      <c r="AC7">
-        <v>8.4</v>
-      </c>
-      <c r="AD7">
-        <v>10.5</v>
-      </c>
-      <c r="AE7">
-        <v>20</v>
-      </c>
-      <c r="AF7">
-        <v>27</v>
-      </c>
-      <c r="AG7">
-        <v>15</v>
-      </c>
-      <c r="AH7">
-        <v>16.5</v>
-      </c>
       <c r="AI7">
+        <v>95</v>
+      </c>
+      <c r="AJ7">
+        <v>300</v>
+      </c>
+      <c r="AK7">
+        <v>1000</v>
+      </c>
+      <c r="AL7">
+        <v>1000</v>
+      </c>
+      <c r="AM7">
+        <v>580</v>
+      </c>
+      <c r="AN7">
+        <v>600</v>
+      </c>
+      <c r="AO7">
         <v>34</v>
-      </c>
-      <c r="AJ7">
-        <v>70</v>
-      </c>
-      <c r="AK7">
-        <v>40</v>
-      </c>
-      <c r="AL7">
-        <v>48</v>
-      </c>
-      <c r="AM7">
-        <v>85</v>
-      </c>
-      <c r="AN7">
-        <v>36</v>
-      </c>
-      <c r="AO7">
-        <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1692,374 +1710,374 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F8">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H8">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="K8">
-        <v>950</v>
+        <v>3.95</v>
       </c>
       <c r="L8">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M8">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8">
-        <v>1.11</v>
+        <v>4.5</v>
       </c>
       <c r="O8">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="P8">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q8">
-        <v>1.16</v>
+        <v>1.85</v>
       </c>
       <c r="R8">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S8">
-        <v>1.16</v>
+        <v>3.1</v>
       </c>
       <c r="T8">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U8">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="V8">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="W8">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X8">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y8">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z8">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA8">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB8">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC8">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD8">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE8">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF8">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG8">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH8">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI8">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ8">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK8">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM8">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN8">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO8">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9">
+        <v>3.2</v>
+      </c>
+      <c r="G9">
+        <v>3.25</v>
+      </c>
+      <c r="H9">
+        <v>2.38</v>
+      </c>
+      <c r="I9">
+        <v>2.4</v>
+      </c>
+      <c r="J9">
+        <v>3.7</v>
+      </c>
+      <c r="K9">
+        <v>3.75</v>
+      </c>
+      <c r="L9">
+        <v>1.38</v>
+      </c>
+      <c r="M9">
+        <v>1.06</v>
+      </c>
+      <c r="N9">
+        <v>4.4</v>
+      </c>
+      <c r="O9">
+        <v>1.28</v>
+      </c>
+      <c r="P9">
+        <v>2.14</v>
+      </c>
+      <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>1.48</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>1.72</v>
+      </c>
+      <c r="U9">
+        <v>2.36</v>
+      </c>
+      <c r="V9">
+        <v>1.71</v>
+      </c>
+      <c r="W9">
+        <v>1.44</v>
+      </c>
+      <c r="X9">
+        <v>16</v>
+      </c>
+      <c r="Y9">
+        <v>11.5</v>
+      </c>
+      <c r="Z9">
+        <v>15</v>
+      </c>
+      <c r="AA9">
+        <v>32</v>
+      </c>
+      <c r="AB9">
+        <v>14.5</v>
+      </c>
+      <c r="AC9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>11.5</v>
+      </c>
+      <c r="AE9">
+        <v>23</v>
+      </c>
+      <c r="AF9">
+        <v>22</v>
+      </c>
+      <c r="AG9">
+        <v>14</v>
+      </c>
+      <c r="AH9">
+        <v>15</v>
+      </c>
+      <c r="AI9">
+        <v>32</v>
+      </c>
+      <c r="AJ9">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9">
-        <v>2.02</v>
-      </c>
-      <c r="G9">
-        <v>2.12</v>
-      </c>
-      <c r="H9">
-        <v>4.3</v>
-      </c>
-      <c r="I9">
-        <v>4.6</v>
-      </c>
-      <c r="J9">
-        <v>3.4</v>
-      </c>
-      <c r="K9">
-        <v>3.55</v>
-      </c>
-      <c r="L9">
-        <v>1.5</v>
-      </c>
-      <c r="M9">
-        <v>1.09</v>
-      </c>
-      <c r="N9">
-        <v>2.94</v>
-      </c>
-      <c r="O9">
-        <v>1.45</v>
-      </c>
-      <c r="P9">
-        <v>1.67</v>
-      </c>
-      <c r="Q9">
-        <v>2.38</v>
-      </c>
-      <c r="R9">
-        <v>1.25</v>
-      </c>
-      <c r="S9">
-        <v>4.4</v>
-      </c>
-      <c r="T9">
-        <v>1.98</v>
-      </c>
-      <c r="U9">
-        <v>1.86</v>
-      </c>
-      <c r="V9">
-        <v>1.21</v>
-      </c>
-      <c r="W9">
-        <v>1.74</v>
-      </c>
-      <c r="X9">
-        <v>13</v>
-      </c>
-      <c r="Y9">
-        <v>13.5</v>
-      </c>
-      <c r="Z9">
-        <v>980</v>
-      </c>
-      <c r="AA9">
-        <v>150</v>
-      </c>
-      <c r="AB9">
-        <v>7.8</v>
-      </c>
-      <c r="AC9">
-        <v>8</v>
-      </c>
-      <c r="AD9">
-        <v>20</v>
-      </c>
-      <c r="AE9">
+      <c r="AK9">
+        <v>34</v>
+      </c>
+      <c r="AL9">
+        <v>40</v>
+      </c>
+      <c r="AM9">
         <v>75</v>
       </c>
-      <c r="AF9">
-        <v>12</v>
-      </c>
-      <c r="AG9">
-        <v>12</v>
-      </c>
-      <c r="AH9">
-        <v>23</v>
-      </c>
-      <c r="AI9">
-        <v>85</v>
-      </c>
-      <c r="AJ9">
+      <c r="AN9">
         <v>27</v>
       </c>
-      <c r="AK9">
-        <v>27</v>
-      </c>
-      <c r="AL9">
-        <v>980</v>
-      </c>
-      <c r="AM9">
-        <v>180</v>
-      </c>
-      <c r="AN9">
-        <v>21</v>
-      </c>
       <c r="AO9">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10">
+        <v>1.7</v>
+      </c>
+      <c r="G10">
+        <v>1.9</v>
+      </c>
+      <c r="H10">
+        <v>4.3</v>
+      </c>
+      <c r="I10">
+        <v>5.4</v>
+      </c>
+      <c r="J10">
+        <v>3.75</v>
+      </c>
+      <c r="K10">
+        <v>5.4</v>
+      </c>
+      <c r="L10">
+        <v>1.31</v>
+      </c>
+      <c r="M10">
+        <v>1.03</v>
+      </c>
+      <c r="N10">
+        <v>4.9</v>
+      </c>
+      <c r="O10">
+        <v>1.2</v>
+      </c>
+      <c r="P10">
+        <v>2.34</v>
+      </c>
+      <c r="Q10">
+        <v>1.61</v>
+      </c>
+      <c r="R10">
+        <v>1.53</v>
+      </c>
+      <c r="S10">
+        <v>2.46</v>
+      </c>
+      <c r="T10">
+        <v>1.6</v>
+      </c>
+      <c r="U10">
+        <v>2.28</v>
+      </c>
+      <c r="V10">
+        <v>1.23</v>
+      </c>
+      <c r="W10">
+        <v>2.1</v>
+      </c>
+      <c r="X10">
+        <v>1000</v>
+      </c>
+      <c r="Y10">
+        <v>1000</v>
+      </c>
+      <c r="Z10">
+        <v>1000</v>
+      </c>
+      <c r="AA10">
+        <v>1000</v>
+      </c>
+      <c r="AB10">
+        <v>1000</v>
+      </c>
+      <c r="AC10">
+        <v>42</v>
+      </c>
+      <c r="AD10">
+        <v>1000</v>
+      </c>
+      <c r="AE10">
+        <v>1000</v>
+      </c>
+      <c r="AF10">
+        <v>1000</v>
+      </c>
+      <c r="AG10">
+        <v>1000</v>
+      </c>
+      <c r="AH10">
+        <v>1000</v>
+      </c>
+      <c r="AI10">
+        <v>1000</v>
+      </c>
+      <c r="AJ10">
+        <v>1000</v>
+      </c>
+      <c r="AK10">
+        <v>1000</v>
+      </c>
+      <c r="AL10">
+        <v>1000</v>
+      </c>
+      <c r="AM10">
+        <v>1000</v>
+      </c>
+      <c r="AN10">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10">
-        <v>1.82</v>
-      </c>
-      <c r="G10">
-        <v>1.96</v>
-      </c>
-      <c r="H10">
-        <v>3.95</v>
-      </c>
-      <c r="I10">
-        <v>4.6</v>
-      </c>
-      <c r="J10">
-        <v>3.95</v>
-      </c>
-      <c r="K10">
-        <v>4.5</v>
-      </c>
-      <c r="L10">
-        <v>1.27</v>
-      </c>
-      <c r="M10">
-        <v>1.04</v>
-      </c>
-      <c r="N10">
-        <v>4.5</v>
-      </c>
-      <c r="O10">
-        <v>1.23</v>
-      </c>
-      <c r="P10">
-        <v>2.22</v>
-      </c>
-      <c r="Q10">
-        <v>1.67</v>
-      </c>
-      <c r="R10">
-        <v>1.48</v>
-      </c>
-      <c r="S10">
-        <v>2.66</v>
-      </c>
-      <c r="T10">
-        <v>1.64</v>
-      </c>
-      <c r="U10">
-        <v>2.22</v>
-      </c>
-      <c r="V10">
-        <v>1.28</v>
-      </c>
-      <c r="W10">
-        <v>2.02</v>
-      </c>
-      <c r="X10">
-        <v>26</v>
-      </c>
-      <c r="Y10">
-        <v>23</v>
-      </c>
-      <c r="Z10">
-        <v>980</v>
-      </c>
-      <c r="AA10">
-        <v>100</v>
-      </c>
-      <c r="AB10">
-        <v>12</v>
-      </c>
-      <c r="AC10">
-        <v>12</v>
-      </c>
-      <c r="AD10">
-        <v>21</v>
-      </c>
-      <c r="AE10">
-        <v>60</v>
-      </c>
-      <c r="AF10">
-        <v>16</v>
-      </c>
-      <c r="AG10">
-        <v>12.5</v>
-      </c>
-      <c r="AH10">
-        <v>22</v>
-      </c>
-      <c r="AI10">
-        <v>60</v>
-      </c>
-      <c r="AJ10">
-        <v>26</v>
-      </c>
-      <c r="AK10">
-        <v>23</v>
-      </c>
-      <c r="AL10">
-        <v>36</v>
-      </c>
-      <c r="AM10">
-        <v>95</v>
-      </c>
-      <c r="AN10">
-        <v>12.5</v>
-      </c>
       <c r="AO10">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2067,499 +2085,499 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>1.99</v>
+      </c>
+      <c r="G11">
+        <v>2.02</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11">
+        <v>4.7</v>
+      </c>
+      <c r="J11">
+        <v>3.45</v>
+      </c>
+      <c r="K11">
+        <v>3.55</v>
+      </c>
+      <c r="L11">
+        <v>1.55</v>
+      </c>
+      <c r="M11">
+        <v>1.11</v>
+      </c>
+      <c r="N11">
+        <v>2.98</v>
+      </c>
+      <c r="O11">
+        <v>1.48</v>
+      </c>
+      <c r="P11">
+        <v>1.66</v>
+      </c>
+      <c r="Q11">
+        <v>2.48</v>
+      </c>
+      <c r="R11">
+        <v>1.24</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>2.12</v>
+      </c>
+      <c r="U11">
+        <v>1.83</v>
+      </c>
+      <c r="V11">
+        <v>1.24</v>
+      </c>
+      <c r="W11">
+        <v>1.92</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>13.5</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>120</v>
+      </c>
+      <c r="AB11">
+        <v>7.2</v>
+      </c>
+      <c r="AC11">
+        <v>7.8</v>
+      </c>
+      <c r="AD11">
+        <v>20</v>
+      </c>
+      <c r="AE11">
+        <v>80</v>
+      </c>
+      <c r="AF11">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>24</v>
+      </c>
+      <c r="AI11">
+        <v>95</v>
+      </c>
+      <c r="AJ11">
+        <v>25</v>
+      </c>
+      <c r="AK11">
+        <v>25</v>
+      </c>
+      <c r="AL11">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11">
-        <v>2.06</v>
-      </c>
-      <c r="G11">
-        <v>2.2</v>
-      </c>
-      <c r="H11">
-        <v>3.05</v>
-      </c>
-      <c r="I11">
-        <v>3.55</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>4.8</v>
-      </c>
-      <c r="L11">
-        <v>1.23</v>
-      </c>
-      <c r="M11">
-        <v>1.01</v>
-      </c>
-      <c r="N11">
-        <v>5.8</v>
-      </c>
-      <c r="O11">
-        <v>1.16</v>
-      </c>
-      <c r="P11">
-        <v>2.66</v>
-      </c>
-      <c r="Q11">
-        <v>1.51</v>
-      </c>
-      <c r="R11">
-        <v>1.67</v>
-      </c>
-      <c r="S11">
-        <v>2.22</v>
-      </c>
-      <c r="T11">
-        <v>1.48</v>
-      </c>
-      <c r="U11">
-        <v>2.62</v>
-      </c>
-      <c r="V11">
-        <v>1.39</v>
-      </c>
-      <c r="W11">
-        <v>1.83</v>
-      </c>
-      <c r="X11">
-        <v>980</v>
-      </c>
-      <c r="Y11">
-        <v>980</v>
-      </c>
-      <c r="Z11">
-        <v>1000</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>20</v>
-      </c>
-      <c r="AC11">
-        <v>12.5</v>
-      </c>
-      <c r="AD11">
-        <v>18</v>
-      </c>
-      <c r="AE11">
-        <v>980</v>
-      </c>
-      <c r="AF11">
-        <v>1000</v>
-      </c>
-      <c r="AG11">
-        <v>14</v>
-      </c>
-      <c r="AH11">
-        <v>19</v>
-      </c>
-      <c r="AI11">
-        <v>1000</v>
-      </c>
-      <c r="AJ11">
-        <v>980</v>
-      </c>
-      <c r="AK11">
-        <v>24</v>
-      </c>
-      <c r="AL11">
-        <v>980</v>
-      </c>
       <c r="AM11">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN11">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AO11">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12">
+        <v>2.14</v>
+      </c>
+      <c r="G12">
+        <v>2.26</v>
+      </c>
+      <c r="H12">
+        <v>2.98</v>
+      </c>
+      <c r="I12">
+        <v>3.25</v>
+      </c>
+      <c r="J12">
+        <v>4.2</v>
+      </c>
+      <c r="K12">
+        <v>4.6</v>
+      </c>
+      <c r="L12">
+        <v>1.28</v>
+      </c>
+      <c r="M12">
+        <v>1.03</v>
+      </c>
+      <c r="N12">
+        <v>6.2</v>
+      </c>
+      <c r="O12">
+        <v>1.16</v>
+      </c>
+      <c r="P12">
+        <v>2.84</v>
+      </c>
+      <c r="Q12">
+        <v>1.49</v>
+      </c>
+      <c r="R12">
+        <v>1.72</v>
+      </c>
+      <c r="S12">
+        <v>2.26</v>
+      </c>
+      <c r="T12">
+        <v>1.47</v>
+      </c>
+      <c r="U12">
+        <v>2.88</v>
+      </c>
+      <c r="V12">
+        <v>1.44</v>
+      </c>
+      <c r="W12">
+        <v>1.79</v>
+      </c>
+      <c r="X12">
+        <v>80</v>
+      </c>
+      <c r="Y12">
+        <v>36</v>
+      </c>
+      <c r="Z12">
+        <v>95</v>
+      </c>
+      <c r="AA12">
+        <v>1000</v>
+      </c>
+      <c r="AB12">
+        <v>27</v>
+      </c>
+      <c r="AC12">
+        <v>14.5</v>
+      </c>
+      <c r="AD12">
+        <v>26</v>
+      </c>
+      <c r="AE12">
+        <v>80</v>
+      </c>
+      <c r="AF12">
+        <v>34</v>
+      </c>
+      <c r="AG12">
+        <v>17.5</v>
+      </c>
+      <c r="AH12">
+        <v>23</v>
+      </c>
+      <c r="AI12">
+        <v>85</v>
+      </c>
+      <c r="AJ12">
+        <v>110</v>
+      </c>
+      <c r="AK12">
+        <v>50</v>
+      </c>
+      <c r="AL12">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12">
-        <v>1.72</v>
-      </c>
-      <c r="G12">
-        <v>1.95</v>
-      </c>
-      <c r="H12">
-        <v>4.5</v>
-      </c>
-      <c r="I12">
-        <v>6.2</v>
-      </c>
-      <c r="J12">
-        <v>3.55</v>
-      </c>
-      <c r="K12">
-        <v>4.5</v>
-      </c>
-      <c r="L12">
-        <v>1.32</v>
-      </c>
-      <c r="M12">
-        <v>1.05</v>
-      </c>
-      <c r="N12">
-        <v>3.95</v>
-      </c>
-      <c r="O12">
-        <v>1.28</v>
-      </c>
-      <c r="P12">
-        <v>2.02</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>1.39</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>1.76</v>
-      </c>
-      <c r="U12">
-        <v>2.04</v>
-      </c>
-      <c r="V12">
-        <v>1.19</v>
-      </c>
-      <c r="W12">
-        <v>2.04</v>
-      </c>
-      <c r="X12">
-        <v>20</v>
-      </c>
-      <c r="Y12">
-        <v>980</v>
-      </c>
-      <c r="Z12">
-        <v>1000</v>
-      </c>
-      <c r="AA12">
-        <v>1000</v>
-      </c>
-      <c r="AB12">
-        <v>12</v>
-      </c>
-      <c r="AC12">
-        <v>11.5</v>
-      </c>
-      <c r="AD12">
-        <v>980</v>
-      </c>
-      <c r="AE12">
-        <v>1000</v>
-      </c>
-      <c r="AF12">
-        <v>13.5</v>
-      </c>
-      <c r="AG12">
-        <v>12.5</v>
-      </c>
-      <c r="AH12">
-        <v>1000</v>
-      </c>
-      <c r="AI12">
-        <v>1000</v>
-      </c>
-      <c r="AJ12">
-        <v>1000</v>
-      </c>
-      <c r="AK12">
-        <v>23</v>
-      </c>
-      <c r="AL12">
-        <v>1000</v>
-      </c>
       <c r="AM12">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN12">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO12">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="G13">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="H13">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I13">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="J13">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K13">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L13">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M13">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="O13">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P13">
+        <v>2.06</v>
+      </c>
+      <c r="Q13">
+        <v>1.89</v>
+      </c>
+      <c r="R13">
+        <v>1.39</v>
+      </c>
+      <c r="S13">
+        <v>3.3</v>
+      </c>
+      <c r="T13">
+        <v>1.81</v>
+      </c>
+      <c r="U13">
+        <v>2.08</v>
+      </c>
+      <c r="V13">
+        <v>1.25</v>
+      </c>
+      <c r="W13">
         <v>2.14</v>
       </c>
-      <c r="Q13">
-        <v>1.72</v>
-      </c>
-      <c r="R13">
-        <v>1.44</v>
-      </c>
-      <c r="S13">
-        <v>2.56</v>
-      </c>
-      <c r="T13">
-        <v>1.74</v>
-      </c>
-      <c r="U13">
-        <v>2.06</v>
-      </c>
-      <c r="V13">
-        <v>1.17</v>
-      </c>
-      <c r="W13">
-        <v>2.26</v>
-      </c>
       <c r="X13">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Y13">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z13">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA13">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB13">
+        <v>9.6</v>
+      </c>
+      <c r="AC13">
+        <v>9.4</v>
+      </c>
+      <c r="AD13">
+        <v>19.5</v>
+      </c>
+      <c r="AE13">
+        <v>190</v>
+      </c>
+      <c r="AF13">
+        <v>11.5</v>
+      </c>
+      <c r="AG13">
+        <v>10.5</v>
+      </c>
+      <c r="AH13">
+        <v>20</v>
+      </c>
+      <c r="AI13">
+        <v>150</v>
+      </c>
+      <c r="AJ13">
+        <v>21</v>
+      </c>
+      <c r="AK13">
+        <v>19</v>
+      </c>
+      <c r="AL13">
+        <v>65</v>
+      </c>
+      <c r="AM13">
+        <v>300</v>
+      </c>
+      <c r="AN13">
         <v>12.5</v>
       </c>
-      <c r="AC13">
-        <v>12</v>
-      </c>
-      <c r="AD13">
-        <v>980</v>
-      </c>
-      <c r="AE13">
-        <v>1000</v>
-      </c>
-      <c r="AF13">
-        <v>13.5</v>
-      </c>
-      <c r="AG13">
-        <v>12.5</v>
-      </c>
-      <c r="AH13">
-        <v>980</v>
-      </c>
-      <c r="AI13">
-        <v>1000</v>
-      </c>
-      <c r="AJ13">
-        <v>22</v>
-      </c>
-      <c r="AK13">
-        <v>21</v>
-      </c>
-      <c r="AL13">
-        <v>1000</v>
-      </c>
-      <c r="AM13">
-        <v>1000</v>
-      </c>
-      <c r="AN13">
-        <v>11</v>
-      </c>
       <c r="AO13">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F14">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G14">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I14">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K14">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L14">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M14">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O14">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="Q14">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R14">
+        <v>1.63</v>
+      </c>
+      <c r="S14">
+        <v>2.48</v>
+      </c>
+      <c r="T14">
         <v>1.59</v>
       </c>
-      <c r="S14">
-        <v>2.36</v>
-      </c>
-      <c r="T14">
-        <v>1.56</v>
-      </c>
       <c r="U14">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V14">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z14">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AA14">
+        <v>530</v>
+      </c>
+      <c r="AB14">
+        <v>14</v>
+      </c>
+      <c r="AC14">
+        <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>17.5</v>
+      </c>
+      <c r="AE14">
+        <v>120</v>
+      </c>
+      <c r="AF14">
+        <v>14.5</v>
+      </c>
+      <c r="AG14">
+        <v>11</v>
+      </c>
+      <c r="AH14">
+        <v>17.5</v>
+      </c>
+      <c r="AI14">
         <v>95</v>
       </c>
-      <c r="AB14">
-        <v>14.5</v>
-      </c>
-      <c r="AC14">
-        <v>12.5</v>
-      </c>
-      <c r="AD14">
-        <v>21</v>
-      </c>
-      <c r="AE14">
-        <v>50</v>
-      </c>
-      <c r="AF14">
-        <v>16.5</v>
-      </c>
-      <c r="AG14">
-        <v>11.5</v>
-      </c>
-      <c r="AH14">
-        <v>20</v>
-      </c>
-      <c r="AI14">
-        <v>55</v>
-      </c>
       <c r="AJ14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK14">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AL14">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AM14">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN14">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AO14">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2567,76 +2585,76 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F15">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="H15">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="I15">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J15">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="K15">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="L15">
+        <v>1.39</v>
+      </c>
+      <c r="M15">
+        <v>1.06</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
         <v>1.29</v>
-      </c>
-      <c r="M15">
-        <v>1.01</v>
-      </c>
-      <c r="N15">
-        <v>1.11</v>
-      </c>
-      <c r="O15">
-        <v>1.27</v>
       </c>
       <c r="P15">
         <v>2.04</v>
       </c>
       <c r="Q15">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="R15">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S15">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="T15">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="U15">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V15">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W15">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="X15">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y15">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15">
         <v>1000</v>
@@ -2645,34 +2663,34 @@
         <v>1000</v>
       </c>
       <c r="AB15">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC15">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD15">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE15">
         <v>1000</v>
       </c>
       <c r="AF15">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG15">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH15">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI15">
         <v>1000</v>
       </c>
       <c r="AJ15">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK15">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL15">
         <v>1000</v>
@@ -2681,135 +2699,135 @@
         <v>1000</v>
       </c>
       <c r="AN15">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO15">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F16">
+        <v>1.65</v>
+      </c>
+      <c r="G16">
+        <v>1.7</v>
+      </c>
+      <c r="H16">
+        <v>5.4</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>4.2</v>
+      </c>
+      <c r="K16">
+        <v>4.5</v>
+      </c>
+      <c r="L16">
+        <v>1.37</v>
+      </c>
+      <c r="M16">
+        <v>1.05</v>
+      </c>
+      <c r="N16">
+        <v>4.4</v>
+      </c>
+      <c r="O16">
+        <v>1.26</v>
+      </c>
+      <c r="P16">
+        <v>2.16</v>
+      </c>
+      <c r="Q16">
+        <v>1.78</v>
+      </c>
+      <c r="R16">
+        <v>1.45</v>
+      </c>
+      <c r="S16">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>3.3</v>
-      </c>
-      <c r="H16">
-        <v>2.68</v>
-      </c>
-      <c r="I16">
-        <v>2.88</v>
-      </c>
-      <c r="J16">
-        <v>3.05</v>
-      </c>
-      <c r="K16">
-        <v>3.15</v>
-      </c>
-      <c r="L16">
-        <v>1.57</v>
-      </c>
-      <c r="M16">
-        <v>1.11</v>
-      </c>
-      <c r="N16">
-        <v>2.78</v>
-      </c>
-      <c r="O16">
-        <v>1.48</v>
-      </c>
-      <c r="P16">
-        <v>1.6</v>
-      </c>
-      <c r="Q16">
+      <c r="T16">
+        <v>1.8</v>
+      </c>
+      <c r="U16">
+        <v>2.06</v>
+      </c>
+      <c r="V16">
+        <v>1.2</v>
+      </c>
+      <c r="W16">
         <v>2.42</v>
       </c>
-      <c r="R16">
-        <v>1.22</v>
-      </c>
-      <c r="S16">
-        <v>4.8</v>
-      </c>
-      <c r="T16">
-        <v>2.02</v>
-      </c>
-      <c r="U16">
-        <v>1.86</v>
-      </c>
-      <c r="V16">
-        <v>1.53</v>
-      </c>
-      <c r="W16">
-        <v>1.44</v>
-      </c>
       <c r="X16">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Y16">
+        <v>44</v>
+      </c>
+      <c r="Z16">
+        <v>48</v>
+      </c>
+      <c r="AA16">
+        <v>1000</v>
+      </c>
+      <c r="AB16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC16">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>22</v>
+      </c>
+      <c r="AE16">
+        <v>220</v>
+      </c>
+      <c r="AF16">
         <v>10.5</v>
       </c>
-      <c r="Z16">
-        <v>20</v>
-      </c>
-      <c r="AA16">
-        <v>55</v>
-      </c>
-      <c r="AB16">
-        <v>11.5</v>
-      </c>
-      <c r="AC16">
-        <v>8.6</v>
-      </c>
-      <c r="AD16">
-        <v>15.5</v>
-      </c>
-      <c r="AE16">
-        <v>44</v>
-      </c>
-      <c r="AF16">
-        <v>24</v>
-      </c>
       <c r="AG16">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI16">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AJ16">
-        <v>65</v>
+        <v>18.5</v>
       </c>
       <c r="AK16">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AL16">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AM16">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AN16">
-        <v>60</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO16">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2817,121 +2835,121 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F17">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="G17">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="H17">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="J17">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K17">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L17">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="M17">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N17">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="O17">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="P17">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="R17">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="S17">
-        <v>4.9</v>
+        <v>2.96</v>
       </c>
       <c r="T17">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="U17">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="V17">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="W17">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="Y17">
-        <v>11.5</v>
+        <v>85</v>
       </c>
       <c r="Z17">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA17">
         <v>1000</v>
       </c>
       <c r="AB17">
-        <v>8.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AC17">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD17">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF17">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AG17">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AH17">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI17">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ17">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AK17">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL17">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM17">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN17">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AO17">
         <v>1000</v>
@@ -2939,252 +2957,252 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F18">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G18">
         <v>3.25</v>
       </c>
       <c r="H18">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="I18">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="J18">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L18">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="M18">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="O18">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="P18">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="Q18">
-        <v>2.26</v>
+        <v>2.86</v>
       </c>
       <c r="R18">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S18">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="U18">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="V18">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="W18">
         <v>1.45</v>
       </c>
       <c r="X18">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y18">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z18">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA18">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB18">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD18">
+        <v>13.5</v>
+      </c>
+      <c r="AE18">
+        <v>42</v>
+      </c>
+      <c r="AF18">
+        <v>18.5</v>
+      </c>
+      <c r="AG18">
         <v>15</v>
       </c>
-      <c r="AE18">
-        <v>980</v>
-      </c>
-      <c r="AF18">
-        <v>980</v>
-      </c>
-      <c r="AG18">
-        <v>16.5</v>
-      </c>
       <c r="AH18">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI18">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AJ18">
+        <v>60</v>
+      </c>
+      <c r="AK18">
+        <v>50</v>
+      </c>
+      <c r="AL18">
+        <v>80</v>
+      </c>
+      <c r="AM18">
+        <v>200</v>
+      </c>
+      <c r="AN18">
         <v>65</v>
       </c>
-      <c r="AK18">
-        <v>980</v>
-      </c>
-      <c r="AL18">
-        <v>75</v>
-      </c>
-      <c r="AM18">
-        <v>170</v>
-      </c>
-      <c r="AN18">
-        <v>980</v>
-      </c>
       <c r="AO18">
-        <v>980</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F19">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="G19">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="H19">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="I19">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="J19">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K19">
         <v>3.2</v>
       </c>
       <c r="L19">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M19">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N19">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="O19">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="P19">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="Q19">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="R19">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S19">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="T19">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="U19">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="V19">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="W19">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="X19">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y19">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z19">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AA19">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AB19">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC19">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD19">
+        <v>16.5</v>
+      </c>
+      <c r="AE19">
+        <v>60</v>
+      </c>
+      <c r="AF19">
         <v>13</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
+        <v>11.5</v>
+      </c>
+      <c r="AH19">
+        <v>24</v>
+      </c>
+      <c r="AI19">
+        <v>90</v>
+      </c>
+      <c r="AJ19">
+        <v>34</v>
+      </c>
+      <c r="AK19">
+        <v>34</v>
+      </c>
+      <c r="AL19">
+        <v>65</v>
+      </c>
+      <c r="AM19">
+        <v>190</v>
+      </c>
+      <c r="AN19">
         <v>36</v>
       </c>
-      <c r="AF19">
-        <v>20</v>
-      </c>
-      <c r="AG19">
-        <v>14.5</v>
-      </c>
-      <c r="AH19">
-        <v>22</v>
-      </c>
-      <c r="AI19">
-        <v>60</v>
-      </c>
-      <c r="AJ19">
-        <v>60</v>
-      </c>
-      <c r="AK19">
-        <v>980</v>
-      </c>
-      <c r="AL19">
-        <v>70</v>
-      </c>
-      <c r="AM19">
-        <v>150</v>
-      </c>
-      <c r="AN19">
-        <v>60</v>
-      </c>
       <c r="AO19">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -3192,124 +3210,124 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F20">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="G20">
-        <v>2.12</v>
+        <v>3.55</v>
       </c>
       <c r="H20">
-        <v>3.65</v>
+        <v>2.42</v>
       </c>
       <c r="I20">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="J20">
+        <v>3.25</v>
+      </c>
+      <c r="K20">
+        <v>3.3</v>
+      </c>
+      <c r="L20">
+        <v>1.49</v>
+      </c>
+      <c r="M20">
+        <v>1.09</v>
+      </c>
+      <c r="N20">
         <v>3.4</v>
       </c>
-      <c r="K20">
-        <v>3.95</v>
-      </c>
-      <c r="L20">
+      <c r="O20">
+        <v>1.4</v>
+      </c>
+      <c r="P20">
+        <v>1.8</v>
+      </c>
+      <c r="Q20">
+        <v>2.18</v>
+      </c>
+      <c r="R20">
+        <v>1.3</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.88</v>
+      </c>
+      <c r="U20">
+        <v>2.04</v>
+      </c>
+      <c r="V20">
+        <v>1.67</v>
+      </c>
+      <c r="W20">
         <v>1.39</v>
       </c>
-      <c r="M20">
-        <v>1.07</v>
-      </c>
-      <c r="N20">
-        <v>3.2</v>
-      </c>
-      <c r="O20">
-        <v>1.36</v>
-      </c>
-      <c r="P20">
-        <v>1.76</v>
-      </c>
-      <c r="Q20">
-        <v>2.06</v>
-      </c>
-      <c r="R20">
-        <v>1.28</v>
-      </c>
-      <c r="S20">
-        <v>3.75</v>
-      </c>
-      <c r="T20">
-        <v>1.9</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.26</v>
-      </c>
-      <c r="W20">
-        <v>1.89</v>
-      </c>
       <c r="X20">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y20">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z20">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA20">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB20">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC20">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD20">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE20">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF20">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AG20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH20">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI20">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ20">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK20">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL20">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN20">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO20">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -3317,350 +3335,350 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="G21">
-        <v>1.73</v>
+        <v>3.75</v>
       </c>
       <c r="H21">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="I21">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="J21">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K21">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="L21">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="M21">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N21">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="O21">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="P21">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="Q21">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="R21">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="S21">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="T21">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V21">
-        <v>1.17</v>
+        <v>1.69</v>
       </c>
       <c r="W21">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="X21">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="Y21">
-        <v>24</v>
+        <v>8.4</v>
       </c>
       <c r="Z21">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="AA21">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB21">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC21">
+        <v>7.2</v>
+      </c>
+      <c r="AD21">
         <v>12</v>
       </c>
-      <c r="AD21">
-        <v>28</v>
-      </c>
       <c r="AE21">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AF21">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AG21">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH21">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI21">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AJ21">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AK21">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AL21">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM21">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN21">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="AO21">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F22">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="G22">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="H22">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="I22">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K22">
         <v>4.3</v>
       </c>
       <c r="L22">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M22">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N22">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O22">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P22">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="R22">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="S22">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="T22">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="U22">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="V22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="W22">
-        <v>1.86</v>
+        <v>2.52</v>
       </c>
       <c r="X22">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Y22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z22">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AA22">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AB22">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC22">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE22">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AF22">
+        <v>9.6</v>
+      </c>
+      <c r="AG22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH22">
+        <v>23</v>
+      </c>
+      <c r="AI22">
+        <v>300</v>
+      </c>
+      <c r="AJ22">
+        <v>16</v>
+      </c>
+      <c r="AK22">
         <v>17.5</v>
       </c>
-      <c r="AG22">
-        <v>13</v>
-      </c>
-      <c r="AH22">
-        <v>20</v>
-      </c>
-      <c r="AI22">
-        <v>55</v>
-      </c>
-      <c r="AJ22">
-        <v>30</v>
-      </c>
-      <c r="AK22">
-        <v>25</v>
-      </c>
       <c r="AL22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM22">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AN22">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO22">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>5.4</v>
+        <v>1.89</v>
       </c>
       <c r="G23">
-        <v>7.6</v>
+        <v>1.95</v>
       </c>
       <c r="H23">
-        <v>1.61</v>
+        <v>4.5</v>
       </c>
       <c r="I23">
-        <v>1.75</v>
+        <v>4.9</v>
       </c>
       <c r="J23">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K23">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="L23">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M23">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N23">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O23">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P23">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="Q23">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="R23">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S23">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="T23">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U23">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="W23">
-        <v>1.17</v>
+        <v>2.04</v>
       </c>
       <c r="X23">
+        <v>25</v>
+      </c>
+      <c r="Y23">
+        <v>32</v>
+      </c>
+      <c r="Z23">
+        <v>1000</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>15.5</v>
+      </c>
+      <c r="AC23">
+        <v>14</v>
+      </c>
+      <c r="AD23">
         <v>980</v>
       </c>
-      <c r="Y23">
-        <v>10.5</v>
-      </c>
-      <c r="Z23">
-        <v>12</v>
-      </c>
-      <c r="AA23">
-        <v>1000</v>
-      </c>
-      <c r="AB23">
-        <v>980</v>
-      </c>
-      <c r="AC23">
-        <v>11.5</v>
-      </c>
-      <c r="AD23">
-        <v>12.5</v>
-      </c>
       <c r="AE23">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF23">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG23">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH23">
         <v>980</v>
@@ -3669,10 +3687,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK23">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL23">
         <v>1000</v>
@@ -3681,507 +3699,507 @@
         <v>1000</v>
       </c>
       <c r="AN23">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO23">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F24">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="G24">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="H24">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="J24">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K24">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L24">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M24">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O24">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P24">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="Q24">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S24">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="T24">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U24">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="V24">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="W24">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="X24">
+        <v>18.5</v>
+      </c>
+      <c r="Y24">
+        <v>16.5</v>
+      </c>
+      <c r="Z24">
+        <v>30</v>
+      </c>
+      <c r="AA24">
+        <v>65</v>
+      </c>
+      <c r="AB24">
+        <v>12.5</v>
+      </c>
+      <c r="AC24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24">
+        <v>15</v>
+      </c>
+      <c r="AE24">
+        <v>36</v>
+      </c>
+      <c r="AF24">
+        <v>16</v>
+      </c>
+      <c r="AG24">
+        <v>11.5</v>
+      </c>
+      <c r="AH24">
+        <v>16.5</v>
+      </c>
+      <c r="AI24">
+        <v>42</v>
+      </c>
+      <c r="AJ24">
+        <v>28</v>
+      </c>
+      <c r="AK24">
         <v>20</v>
       </c>
-      <c r="Y24">
-        <v>19</v>
-      </c>
-      <c r="Z24">
-        <v>38</v>
-      </c>
-      <c r="AA24">
-        <v>1000</v>
-      </c>
-      <c r="AB24">
-        <v>10.5</v>
-      </c>
-      <c r="AC24">
-        <v>9.6</v>
-      </c>
-      <c r="AD24">
-        <v>19.5</v>
-      </c>
-      <c r="AE24">
-        <v>1000</v>
-      </c>
-      <c r="AF24">
-        <v>12.5</v>
-      </c>
-      <c r="AG24">
-        <v>11</v>
-      </c>
-      <c r="AH24">
-        <v>20</v>
-      </c>
-      <c r="AI24">
-        <v>1000</v>
-      </c>
-      <c r="AJ24">
-        <v>21</v>
-      </c>
-      <c r="AK24">
-        <v>19.5</v>
-      </c>
       <c r="AL24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM24">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN24">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO24">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="G25">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="H25">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="I25">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4.4</v>
+      </c>
+      <c r="L25">
+        <v>1.38</v>
+      </c>
+      <c r="M25">
+        <v>1.06</v>
+      </c>
+      <c r="N25">
         <v>4.1</v>
       </c>
-      <c r="K25">
-        <v>4.9</v>
-      </c>
-      <c r="L25">
-        <v>1.3</v>
-      </c>
-      <c r="M25">
-        <v>1.04</v>
-      </c>
-      <c r="N25">
-        <v>4.3</v>
-      </c>
       <c r="O25">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P25">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q25">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R25">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S25">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="T25">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U25">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V25">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W25">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="X25">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y25">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z25">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA25">
         <v>1000</v>
       </c>
       <c r="AB25">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC25">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE25">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF25">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG25">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH25">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI25">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ25">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK25">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL25">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM25">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO25">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26">
+        <v>6.4</v>
+      </c>
+      <c r="G26">
+        <v>7.6</v>
+      </c>
+      <c r="H26">
+        <v>1.56</v>
+      </c>
+      <c r="I26">
+        <v>1.62</v>
+      </c>
+      <c r="J26">
+        <v>4.3</v>
+      </c>
+      <c r="K26">
+        <v>4.6</v>
+      </c>
+      <c r="L26">
+        <v>1.41</v>
+      </c>
+      <c r="M26">
+        <v>1.06</v>
+      </c>
+      <c r="N26">
+        <v>3.9</v>
+      </c>
+      <c r="O26">
+        <v>1.29</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>1.9</v>
+      </c>
+      <c r="R26">
+        <v>1.38</v>
+      </c>
+      <c r="S26">
+        <v>3.2</v>
+      </c>
+      <c r="T26">
+        <v>1.92</v>
+      </c>
+      <c r="U26">
+        <v>1.9</v>
+      </c>
+      <c r="V26">
+        <v>2.6</v>
+      </c>
+      <c r="W26">
+        <v>1.15</v>
+      </c>
+      <c r="X26">
+        <v>27</v>
+      </c>
+      <c r="Y26">
+        <v>15.5</v>
+      </c>
+      <c r="Z26">
+        <v>9.4</v>
+      </c>
+      <c r="AA26">
+        <v>48</v>
+      </c>
+      <c r="AB26">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26">
-        <v>2.4</v>
-      </c>
-      <c r="G26">
-        <v>2.42</v>
-      </c>
-      <c r="H26">
-        <v>3.35</v>
-      </c>
-      <c r="I26">
-        <v>3.4</v>
-      </c>
-      <c r="J26">
-        <v>3.45</v>
-      </c>
-      <c r="K26">
-        <v>3.5</v>
-      </c>
-      <c r="L26">
-        <v>1.46</v>
-      </c>
-      <c r="M26">
-        <v>1.08</v>
-      </c>
-      <c r="N26">
-        <v>3.65</v>
-      </c>
-      <c r="O26">
-        <v>1.35</v>
-      </c>
-      <c r="P26">
-        <v>1.91</v>
-      </c>
-      <c r="Q26">
-        <v>2.06</v>
-      </c>
-      <c r="R26">
-        <v>1.34</v>
-      </c>
-      <c r="S26">
-        <v>3.75</v>
-      </c>
-      <c r="T26">
-        <v>1.82</v>
-      </c>
-      <c r="U26">
-        <v>2.14</v>
-      </c>
-      <c r="V26">
-        <v>1.41</v>
-      </c>
-      <c r="W26">
-        <v>1.7</v>
-      </c>
-      <c r="X26">
-        <v>12.5</v>
-      </c>
-      <c r="Y26">
-        <v>12.5</v>
-      </c>
-      <c r="Z26">
-        <v>23</v>
-      </c>
-      <c r="AA26">
-        <v>60</v>
-      </c>
-      <c r="AB26">
-        <v>10.5</v>
-      </c>
       <c r="AC26">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AD26">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE26">
         <v>40</v>
       </c>
       <c r="AF26">
-        <v>14.5</v>
+        <v>150</v>
       </c>
       <c r="AG26">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AH26">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AI26">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ26">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK26">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL26">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM26">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN26">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO26">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F27">
+        <v>1.64</v>
+      </c>
+      <c r="G27">
+        <v>1.7</v>
+      </c>
+      <c r="H27">
+        <v>5.3</v>
+      </c>
+      <c r="I27">
+        <v>6.2</v>
+      </c>
+      <c r="J27">
+        <v>4.1</v>
+      </c>
+      <c r="K27">
+        <v>4.8</v>
+      </c>
+      <c r="L27">
+        <v>1.35</v>
+      </c>
+      <c r="M27">
+        <v>1.05</v>
+      </c>
+      <c r="N27">
+        <v>4.4</v>
+      </c>
+      <c r="O27">
+        <v>1.24</v>
+      </c>
+      <c r="P27">
+        <v>2.18</v>
+      </c>
+      <c r="Q27">
+        <v>1.72</v>
+      </c>
+      <c r="R27">
+        <v>1.46</v>
+      </c>
+      <c r="S27">
+        <v>2.8</v>
+      </c>
+      <c r="T27">
+        <v>1.75</v>
+      </c>
+      <c r="U27">
+        <v>2.08</v>
+      </c>
+      <c r="V27">
         <v>1.2</v>
       </c>
-      <c r="G27">
-        <v>1.21</v>
-      </c>
-      <c r="H27">
-        <v>24</v>
-      </c>
-      <c r="I27">
-        <v>26</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L27">
-        <v>1.26</v>
-      </c>
-      <c r="M27">
-        <v>1.03</v>
-      </c>
-      <c r="N27">
-        <v>6.2</v>
-      </c>
-      <c r="O27">
-        <v>1.17</v>
-      </c>
-      <c r="P27">
-        <v>2.76</v>
-      </c>
-      <c r="Q27">
-        <v>1.52</v>
-      </c>
-      <c r="R27">
-        <v>1.71</v>
-      </c>
-      <c r="S27">
-        <v>2.28</v>
-      </c>
-      <c r="T27">
-        <v>2.36</v>
-      </c>
-      <c r="U27">
-        <v>1.67</v>
-      </c>
-      <c r="V27">
-        <v>1.04</v>
-      </c>
       <c r="W27">
-        <v>6</v>
+        <v>2.42</v>
       </c>
       <c r="X27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Y27">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="Z27">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AA27">
         <v>1000</v>
       </c>
       <c r="AB27">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AC27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AD27">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AE27">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AF27">
-        <v>7.6</v>
+        <v>20</v>
       </c>
       <c r="AG27">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AH27">
         <v>46</v>
       </c>
       <c r="AI27">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AJ27">
-        <v>8.199999999999999</v>
+        <v>48</v>
       </c>
       <c r="AK27">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AL27">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM27">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN27">
-        <v>3.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO27">
         <v>1000</v>
@@ -4189,31 +4207,31 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F28">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G28">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I28">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J28">
         <v>4.1</v>
@@ -4222,46 +4240,46 @@
         <v>4.2</v>
       </c>
       <c r="L28">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M28">
         <v>1.04</v>
       </c>
       <c r="N28">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O28">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P28">
+        <v>2.6</v>
+      </c>
+      <c r="Q28">
+        <v>1.61</v>
+      </c>
+      <c r="R28">
+        <v>1.65</v>
+      </c>
+      <c r="S28">
         <v>2.5</v>
       </c>
-      <c r="Q28">
-        <v>1.63</v>
-      </c>
-      <c r="R28">
-        <v>1.6</v>
-      </c>
-      <c r="S28">
+      <c r="T28">
+        <v>1.59</v>
+      </c>
+      <c r="U28">
         <v>2.58</v>
       </c>
-      <c r="T28">
-        <v>1.61</v>
-      </c>
-      <c r="U28">
-        <v>2.54</v>
-      </c>
       <c r="V28">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W28">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X28">
+        <v>23</v>
+      </c>
+      <c r="Y28">
         <v>22</v>
-      </c>
-      <c r="Y28">
-        <v>20</v>
       </c>
       <c r="Z28">
         <v>34</v>
@@ -4276,7 +4294,7 @@
         <v>9.4</v>
       </c>
       <c r="AD28">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE28">
         <v>42</v>
@@ -4285,441 +4303,441 @@
         <v>14</v>
       </c>
       <c r="AG28">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH28">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI28">
         <v>42</v>
       </c>
       <c r="AJ28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK28">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM28">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN28">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO28">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F29">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="G29">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="H29">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I29">
+        <v>3.7</v>
+      </c>
+      <c r="J29">
+        <v>3.55</v>
+      </c>
+      <c r="K29">
+        <v>3.6</v>
+      </c>
+      <c r="L29">
+        <v>1.44</v>
+      </c>
+      <c r="M29">
+        <v>1.07</v>
+      </c>
+      <c r="N29">
         <v>4</v>
       </c>
-      <c r="J29">
-        <v>4.5</v>
-      </c>
-      <c r="K29">
-        <v>4.6</v>
-      </c>
-      <c r="L29">
-        <v>1.24</v>
-      </c>
-      <c r="M29">
-        <v>1.03</v>
-      </c>
-      <c r="N29">
-        <v>7.6</v>
-      </c>
       <c r="O29">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="P29">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q29">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="S29">
-        <v>2.06</v>
+        <v>3.5</v>
       </c>
       <c r="T29">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="U29">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="V29">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W29">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="X29">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Y29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Z29">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA29">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB29">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AC29">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD29">
+        <v>14.5</v>
+      </c>
+      <c r="AE29">
+        <v>42</v>
+      </c>
+      <c r="AF29">
+        <v>13.5</v>
+      </c>
+      <c r="AG29">
+        <v>11</v>
+      </c>
+      <c r="AH29">
+        <v>16.5</v>
+      </c>
+      <c r="AI29">
+        <v>50</v>
+      </c>
+      <c r="AJ29">
+        <v>27</v>
+      </c>
+      <c r="AK29">
+        <v>23</v>
+      </c>
+      <c r="AL29">
+        <v>36</v>
+      </c>
+      <c r="AM29">
+        <v>85</v>
+      </c>
+      <c r="AN29">
         <v>17</v>
       </c>
-      <c r="AE29">
-        <v>36</v>
-      </c>
-      <c r="AF29">
-        <v>17</v>
-      </c>
-      <c r="AG29">
-        <v>10.5</v>
-      </c>
-      <c r="AH29">
-        <v>14.5</v>
-      </c>
-      <c r="AI29">
-        <v>34</v>
-      </c>
-      <c r="AJ29">
-        <v>24</v>
-      </c>
-      <c r="AK29">
-        <v>16</v>
-      </c>
-      <c r="AL29">
-        <v>22</v>
-      </c>
-      <c r="AM29">
-        <v>46</v>
-      </c>
-      <c r="AN29">
-        <v>6.6</v>
-      </c>
       <c r="AO29">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F30">
-        <v>6.6</v>
+        <v>1.17</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>1.18</v>
       </c>
       <c r="H30">
-        <v>1.52</v>
+        <v>24</v>
       </c>
       <c r="I30">
-        <v>1.54</v>
+        <v>25</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>5.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L30">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M30">
         <v>1.03</v>
       </c>
       <c r="N30">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O30">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P30">
+        <v>2.58</v>
+      </c>
+      <c r="Q30">
+        <v>1.62</v>
+      </c>
+      <c r="R30">
+        <v>1.62</v>
+      </c>
+      <c r="S30">
+        <v>2.56</v>
+      </c>
+      <c r="T30">
         <v>2.74</v>
       </c>
-      <c r="Q30">
-        <v>1.55</v>
-      </c>
-      <c r="R30">
-        <v>1.71</v>
-      </c>
-      <c r="S30">
-        <v>2.36</v>
-      </c>
-      <c r="T30">
-        <v>1.7</v>
-      </c>
       <c r="U30">
-        <v>2.34</v>
+        <v>1.56</v>
       </c>
       <c r="V30">
-        <v>2.84</v>
+        <v>1.04</v>
       </c>
       <c r="W30">
-        <v>1.17</v>
+        <v>6.4</v>
       </c>
       <c r="X30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y30">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Z30">
-        <v>11.5</v>
+        <v>300</v>
       </c>
       <c r="AA30">
+        <v>1000</v>
+      </c>
+      <c r="AB30">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC30">
+        <v>20</v>
+      </c>
+      <c r="AD30">
+        <v>85</v>
+      </c>
+      <c r="AE30">
+        <v>600</v>
+      </c>
+      <c r="AF30">
+        <v>6.6</v>
+      </c>
+      <c r="AG30">
+        <v>13</v>
+      </c>
+      <c r="AH30">
+        <v>60</v>
+      </c>
+      <c r="AI30">
+        <v>420</v>
+      </c>
+      <c r="AJ30">
+        <v>7.6</v>
+      </c>
+      <c r="AK30">
         <v>15</v>
       </c>
-      <c r="AB30">
-        <v>30</v>
-      </c>
-      <c r="AC30">
-        <v>11.5</v>
-      </c>
-      <c r="AD30">
-        <v>9.6</v>
-      </c>
-      <c r="AE30">
-        <v>13.5</v>
-      </c>
-      <c r="AF30">
+      <c r="AL30">
         <v>60</v>
       </c>
-      <c r="AG30">
-        <v>24</v>
-      </c>
-      <c r="AH30">
-        <v>19</v>
-      </c>
-      <c r="AI30">
-        <v>25</v>
-      </c>
-      <c r="AJ30">
-        <v>180</v>
-      </c>
-      <c r="AK30">
-        <v>75</v>
-      </c>
-      <c r="AL30">
-        <v>65</v>
-      </c>
       <c r="AM30">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AN30">
-        <v>65</v>
+        <v>3.65</v>
       </c>
       <c r="AO30">
-        <v>5.7</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31">
+        <v>1.81</v>
+      </c>
+      <c r="G31">
+        <v>1.82</v>
+      </c>
+      <c r="H31">
+        <v>4.4</v>
+      </c>
+      <c r="I31">
+        <v>4.5</v>
+      </c>
+      <c r="J31">
+        <v>4.5</v>
+      </c>
+      <c r="K31">
+        <v>4.6</v>
+      </c>
+      <c r="L31">
+        <v>1.23</v>
+      </c>
+      <c r="M31">
+        <v>1.02</v>
+      </c>
+      <c r="N31">
+        <v>8.4</v>
+      </c>
+      <c r="O31">
+        <v>1.13</v>
+      </c>
+      <c r="P31">
+        <v>3.35</v>
+      </c>
+      <c r="Q31">
+        <v>1.41</v>
+      </c>
+      <c r="R31">
+        <v>1.97</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>1.47</v>
+      </c>
+      <c r="U31">
+        <v>3.05</v>
+      </c>
+      <c r="V31">
+        <v>1.29</v>
+      </c>
+      <c r="W31">
+        <v>2.22</v>
+      </c>
+      <c r="X31">
+        <v>36</v>
+      </c>
+      <c r="Y31">
+        <v>32</v>
+      </c>
+      <c r="Z31">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31">
-        <v>1.9</v>
-      </c>
-      <c r="G31">
-        <v>1.91</v>
-      </c>
-      <c r="H31">
-        <v>4.6</v>
-      </c>
-      <c r="I31">
-        <v>4.7</v>
-      </c>
-      <c r="J31">
-        <v>3.85</v>
-      </c>
-      <c r="K31">
-        <v>3.9</v>
-      </c>
-      <c r="L31">
-        <v>1.41</v>
-      </c>
-      <c r="M31">
-        <v>1.06</v>
-      </c>
-      <c r="N31">
-        <v>3.95</v>
-      </c>
-      <c r="O31">
-        <v>1.31</v>
-      </c>
-      <c r="P31">
-        <v>2.02</v>
-      </c>
-      <c r="Q31">
-        <v>1.93</v>
-      </c>
-      <c r="R31">
-        <v>1.39</v>
-      </c>
-      <c r="S31">
-        <v>3.35</v>
-      </c>
-      <c r="T31">
-        <v>1.84</v>
-      </c>
-      <c r="U31">
-        <v>2.14</v>
-      </c>
-      <c r="V31">
-        <v>1.27</v>
-      </c>
-      <c r="W31">
-        <v>2.08</v>
-      </c>
-      <c r="X31">
-        <v>15</v>
-      </c>
-      <c r="Y31">
-        <v>17</v>
-      </c>
-      <c r="Z31">
-        <v>34</v>
-      </c>
       <c r="AA31">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AB31">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AC31">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AD31">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AE31">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF31">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AG31">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH31">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI31">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AJ31">
         <v>22</v>
       </c>
       <c r="AK31">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AL31">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM31">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN31">
-        <v>12.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO31">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G32">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="H32">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I32">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J32">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K32">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L32">
         <v>1.41</v>
@@ -4728,960 +4746,960 @@
         <v>1.06</v>
       </c>
       <c r="N32">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O32">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P32">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q32">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R32">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S32">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T32">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="U32">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V32">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W32">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="X32">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y32">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z32">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA32">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB32">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE32">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG32">
         <v>10</v>
       </c>
       <c r="AH32">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI32">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ32">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AK32">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL32">
         <v>34</v>
       </c>
       <c r="AM32">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN32">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO32">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <v>7.2</v>
+      </c>
+      <c r="G33">
+        <v>7.6</v>
+      </c>
+      <c r="H33">
+        <v>1.45</v>
+      </c>
+      <c r="I33">
+        <v>1.46</v>
+      </c>
+      <c r="J33">
+        <v>5.6</v>
+      </c>
+      <c r="K33">
+        <v>5.7</v>
+      </c>
+      <c r="L33">
+        <v>1.23</v>
+      </c>
+      <c r="M33">
+        <v>1.02</v>
+      </c>
+      <c r="N33">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O33">
+        <v>1.13</v>
+      </c>
+      <c r="P33">
+        <v>3.4</v>
+      </c>
+      <c r="Q33">
+        <v>1.4</v>
+      </c>
+      <c r="R33">
+        <v>1.97</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>1.61</v>
+      </c>
+      <c r="U33">
+        <v>2.6</v>
+      </c>
+      <c r="V33">
+        <v>3.15</v>
+      </c>
+      <c r="W33">
+        <v>1.15</v>
+      </c>
+      <c r="X33">
+        <v>38</v>
+      </c>
+      <c r="Y33">
+        <v>15.5</v>
+      </c>
+      <c r="Z33">
+        <v>12.5</v>
+      </c>
+      <c r="AA33">
+        <v>14.5</v>
+      </c>
+      <c r="AB33">
+        <v>42</v>
+      </c>
+      <c r="AC33">
+        <v>14</v>
+      </c>
+      <c r="AD33">
+        <v>10.5</v>
+      </c>
+      <c r="AE33">
+        <v>12.5</v>
+      </c>
+      <c r="AF33">
+        <v>75</v>
+      </c>
+      <c r="AG33">
+        <v>27</v>
+      </c>
+      <c r="AH33">
+        <v>18.5</v>
+      </c>
+      <c r="AI33">
+        <v>22</v>
+      </c>
+      <c r="AJ33">
+        <v>210</v>
+      </c>
+      <c r="AK33">
+        <v>75</v>
+      </c>
+      <c r="AL33">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33">
-        <v>1.88</v>
-      </c>
-      <c r="G33">
-        <v>1.95</v>
-      </c>
-      <c r="H33">
-        <v>4.4</v>
-      </c>
-      <c r="I33">
-        <v>4.7</v>
-      </c>
-      <c r="J33">
-        <v>3.65</v>
-      </c>
-      <c r="K33">
-        <v>3.9</v>
-      </c>
-      <c r="L33">
-        <v>1.44</v>
-      </c>
-      <c r="M33">
-        <v>1.06</v>
-      </c>
-      <c r="N33">
-        <v>3.65</v>
-      </c>
-      <c r="O33">
-        <v>1.34</v>
-      </c>
-      <c r="P33">
-        <v>1.91</v>
-      </c>
-      <c r="Q33">
-        <v>1.98</v>
-      </c>
-      <c r="R33">
-        <v>1.34</v>
-      </c>
-      <c r="S33">
-        <v>3.55</v>
-      </c>
-      <c r="T33">
-        <v>1.83</v>
-      </c>
-      <c r="U33">
-        <v>2.04</v>
-      </c>
-      <c r="V33">
-        <v>1.27</v>
-      </c>
-      <c r="W33">
-        <v>2.04</v>
-      </c>
-      <c r="X33">
-        <v>16</v>
-      </c>
-      <c r="Y33">
-        <v>980</v>
-      </c>
-      <c r="Z33">
-        <v>980</v>
-      </c>
-      <c r="AA33">
-        <v>130</v>
-      </c>
-      <c r="AB33">
-        <v>10</v>
-      </c>
-      <c r="AC33">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD33">
-        <v>980</v>
-      </c>
-      <c r="AE33">
+      <c r="AM33">
         <v>65</v>
       </c>
-      <c r="AF33">
-        <v>12</v>
-      </c>
-      <c r="AG33">
-        <v>980</v>
-      </c>
-      <c r="AH33">
-        <v>980</v>
-      </c>
-      <c r="AI33">
-        <v>70</v>
-      </c>
-      <c r="AJ33">
-        <v>980</v>
-      </c>
-      <c r="AK33">
-        <v>22</v>
-      </c>
-      <c r="AL33">
-        <v>980</v>
-      </c>
-      <c r="AM33">
-        <v>130</v>
-      </c>
       <c r="AN33">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AO33">
-        <v>80</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F34">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="G34">
+        <v>2.16</v>
+      </c>
+      <c r="H34">
+        <v>3.9</v>
+      </c>
+      <c r="I34">
+        <v>3.95</v>
+      </c>
+      <c r="J34">
         <v>3.5</v>
       </c>
-      <c r="H34">
-        <v>2.5</v>
-      </c>
-      <c r="I34">
-        <v>2.66</v>
-      </c>
-      <c r="J34">
-        <v>3.05</v>
-      </c>
       <c r="K34">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L34">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="M34">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N34">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="O34">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="P34">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="Q34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="T34">
-        <v>2.04</v>
+        <v>1.81</v>
       </c>
       <c r="U34">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="V34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="W34">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="X34">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Y34">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Z34">
+        <v>27</v>
+      </c>
+      <c r="AA34">
+        <v>75</v>
+      </c>
+      <c r="AB34">
+        <v>9.6</v>
+      </c>
+      <c r="AC34">
+        <v>7.8</v>
+      </c>
+      <c r="AD34">
         <v>15.5</v>
       </c>
-      <c r="AA34">
-        <v>1000</v>
-      </c>
-      <c r="AB34">
+      <c r="AE34">
+        <v>50</v>
+      </c>
+      <c r="AF34">
+        <v>13</v>
+      </c>
+      <c r="AG34">
         <v>10.5</v>
       </c>
-      <c r="AC34">
-        <v>7.2</v>
-      </c>
-      <c r="AD34">
-        <v>13.5</v>
-      </c>
-      <c r="AE34">
-        <v>1000</v>
-      </c>
-      <c r="AF34">
+      <c r="AH34">
+        <v>17.5</v>
+      </c>
+      <c r="AI34">
+        <v>55</v>
+      </c>
+      <c r="AJ34">
         <v>26</v>
       </c>
-      <c r="AG34">
-        <v>16</v>
-      </c>
-      <c r="AH34">
-        <v>23</v>
-      </c>
-      <c r="AI34">
-        <v>1000</v>
-      </c>
-      <c r="AJ34">
-        <v>1000</v>
-      </c>
       <c r="AK34">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL34">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM34">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN34">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AO34">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F35">
+        <v>1.85</v>
+      </c>
+      <c r="G35">
+        <v>1.9</v>
+      </c>
+      <c r="H35">
+        <v>4.9</v>
+      </c>
+      <c r="I35">
+        <v>5.2</v>
+      </c>
+      <c r="J35">
+        <v>3.65</v>
+      </c>
+      <c r="K35">
+        <v>3.8</v>
+      </c>
+      <c r="L35">
+        <v>1.45</v>
+      </c>
+      <c r="M35">
+        <v>1.08</v>
+      </c>
+      <c r="N35">
+        <v>3.6</v>
+      </c>
+      <c r="O35">
         <v>1.36</v>
       </c>
-      <c r="G35">
-        <v>1.39</v>
-      </c>
-      <c r="H35">
+      <c r="P35">
+        <v>1.9</v>
+      </c>
+      <c r="Q35">
+        <v>2.08</v>
+      </c>
+      <c r="R35">
+        <v>1.34</v>
+      </c>
+      <c r="S35">
+        <v>3.8</v>
+      </c>
+      <c r="T35">
+        <v>1.92</v>
+      </c>
+      <c r="U35">
+        <v>2.02</v>
+      </c>
+      <c r="V35">
+        <v>1.23</v>
+      </c>
+      <c r="W35">
+        <v>2.1</v>
+      </c>
+      <c r="X35">
+        <v>13.5</v>
+      </c>
+      <c r="Y35">
+        <v>16</v>
+      </c>
+      <c r="Z35">
+        <v>36</v>
+      </c>
+      <c r="AA35">
+        <v>130</v>
+      </c>
+      <c r="AB35">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC35">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>19.5</v>
+      </c>
+      <c r="AE35">
+        <v>70</v>
+      </c>
+      <c r="AF35">
         <v>11</v>
       </c>
-      <c r="I35">
-        <v>12.5</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
-      </c>
-      <c r="K35">
-        <v>5.5</v>
-      </c>
-      <c r="L35">
-        <v>1.41</v>
-      </c>
-      <c r="M35">
-        <v>1.06</v>
-      </c>
-      <c r="N35">
-        <v>3.9</v>
-      </c>
-      <c r="O35">
-        <v>1.3</v>
-      </c>
-      <c r="P35">
-        <v>2.04</v>
-      </c>
-      <c r="Q35">
-        <v>1.89</v>
-      </c>
-      <c r="R35">
-        <v>1.39</v>
-      </c>
-      <c r="S35">
-        <v>3.25</v>
-      </c>
-      <c r="T35">
-        <v>2.28</v>
-      </c>
-      <c r="U35">
-        <v>1.68</v>
-      </c>
-      <c r="V35">
-        <v>1.08</v>
-      </c>
-      <c r="W35">
-        <v>3.55</v>
-      </c>
-      <c r="X35">
-        <v>19</v>
-      </c>
-      <c r="Y35">
-        <v>1000</v>
-      </c>
-      <c r="Z35">
-        <v>130</v>
-      </c>
-      <c r="AA35">
-        <v>560</v>
-      </c>
-      <c r="AB35">
-        <v>7.6</v>
-      </c>
-      <c r="AC35">
-        <v>1000</v>
-      </c>
-      <c r="AD35">
-        <v>980</v>
-      </c>
-      <c r="AE35">
-        <v>260</v>
-      </c>
-      <c r="AF35">
-        <v>7.4</v>
-      </c>
       <c r="AG35">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH35">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI35">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AJ35">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AK35">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL35">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM35">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AN35">
-        <v>6.8</v>
+        <v>13.5</v>
       </c>
       <c r="AO35">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F36">
+        <v>3.6</v>
+      </c>
+      <c r="G36">
+        <v>3.7</v>
+      </c>
+      <c r="H36">
+        <v>2.4</v>
+      </c>
+      <c r="I36">
+        <v>2.42</v>
+      </c>
+      <c r="J36">
+        <v>3.2</v>
+      </c>
+      <c r="K36">
+        <v>3.25</v>
+      </c>
+      <c r="L36">
+        <v>1.58</v>
+      </c>
+      <c r="M36">
+        <v>1.12</v>
+      </c>
+      <c r="N36">
+        <v>2.92</v>
+      </c>
+      <c r="O36">
+        <v>1.49</v>
+      </c>
+      <c r="P36">
+        <v>1.63</v>
+      </c>
+      <c r="Q36">
+        <v>2.52</v>
+      </c>
+      <c r="R36">
+        <v>1.23</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
         <v>2.06</v>
       </c>
-      <c r="G36">
-        <v>2.14</v>
-      </c>
-      <c r="H36">
-        <v>4.2</v>
-      </c>
-      <c r="I36">
-        <v>4.7</v>
-      </c>
-      <c r="J36">
-        <v>3.25</v>
-      </c>
-      <c r="K36">
-        <v>3.35</v>
-      </c>
-      <c r="L36">
-        <v>1.56</v>
-      </c>
-      <c r="M36">
-        <v>1.11</v>
-      </c>
-      <c r="N36">
-        <v>2.82</v>
-      </c>
-      <c r="O36">
-        <v>1.47</v>
-      </c>
-      <c r="P36">
-        <v>1.62</v>
-      </c>
-      <c r="Q36">
-        <v>2.4</v>
-      </c>
-      <c r="R36">
-        <v>1.22</v>
-      </c>
-      <c r="S36">
-        <v>4.8</v>
-      </c>
-      <c r="T36">
-        <v>2.08</v>
-      </c>
       <c r="U36">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="V36">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="W36">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="X36">
+        <v>9.4</v>
+      </c>
+      <c r="Y36">
+        <v>8</v>
+      </c>
+      <c r="Z36">
+        <v>13.5</v>
+      </c>
+      <c r="AA36">
+        <v>34</v>
+      </c>
+      <c r="AB36">
         <v>11</v>
       </c>
-      <c r="Y36">
-        <v>14</v>
-      </c>
-      <c r="Z36">
+      <c r="AC36">
+        <v>7.2</v>
+      </c>
+      <c r="AD36">
+        <v>12</v>
+      </c>
+      <c r="AE36">
         <v>32</v>
       </c>
-      <c r="AA36">
-        <v>110</v>
-      </c>
-      <c r="AB36">
-        <v>8.6</v>
-      </c>
-      <c r="AC36">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD36">
-        <v>20</v>
-      </c>
-      <c r="AE36">
-        <v>70</v>
-      </c>
       <c r="AF36">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG36">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH36">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI36">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AJ36">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AK36">
+        <v>60</v>
+      </c>
+      <c r="AL36">
+        <v>80</v>
+      </c>
+      <c r="AM36">
+        <v>160</v>
+      </c>
+      <c r="AN36">
+        <v>75</v>
+      </c>
+      <c r="AO36">
         <v>30</v>
-      </c>
-      <c r="AL36">
-        <v>55</v>
-      </c>
-      <c r="AM36">
-        <v>190</v>
-      </c>
-      <c r="AN36">
-        <v>23</v>
-      </c>
-      <c r="AO36">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F37">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="G37">
-        <v>1000</v>
+        <v>1.42</v>
       </c>
       <c r="H37">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="I37">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J37">
-        <v>1.02</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L37">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M37">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N37">
-        <v>1.11</v>
+        <v>4.1</v>
       </c>
       <c r="O37">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P37">
+        <v>2.08</v>
+      </c>
+      <c r="Q37">
+        <v>1.9</v>
+      </c>
+      <c r="R37">
+        <v>1.41</v>
+      </c>
+      <c r="S37">
+        <v>3.35</v>
+      </c>
+      <c r="T37">
+        <v>2.18</v>
+      </c>
+      <c r="U37">
+        <v>1.78</v>
+      </c>
+      <c r="V37">
         <v>1.1</v>
       </c>
-      <c r="Q37">
-        <v>1.01</v>
-      </c>
-      <c r="R37">
-        <v>1.1</v>
-      </c>
-      <c r="S37">
-        <v>1.36</v>
-      </c>
-      <c r="T37">
-        <v>1.03</v>
-      </c>
-      <c r="U37">
-        <v>1.03</v>
-      </c>
-      <c r="V37">
-        <v>1.01</v>
-      </c>
       <c r="W37">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="X37">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y37">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z37">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA37">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB37">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC37">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD37">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE37">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF37">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG37">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH37">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI37">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ37">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK37">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL37">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM37">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN37">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO37">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F38">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="G38">
-        <v>2.76</v>
+        <v>2.16</v>
       </c>
       <c r="H38">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="I38">
+        <v>4.3</v>
+      </c>
+      <c r="J38">
+        <v>3.25</v>
+      </c>
+      <c r="K38">
         <v>3.35</v>
       </c>
-      <c r="J38">
-        <v>3.05</v>
-      </c>
-      <c r="K38">
-        <v>4.5</v>
-      </c>
       <c r="L38">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="M38">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N38">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="O38">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="P38">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="Q38">
+        <v>2.48</v>
+      </c>
+      <c r="R38">
+        <v>1.23</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>2.1</v>
+      </c>
+      <c r="U38">
         <v>1.84</v>
       </c>
-      <c r="R38">
-        <v>1.37</v>
-      </c>
-      <c r="S38">
-        <v>3.15</v>
-      </c>
-      <c r="T38">
-        <v>1.7</v>
-      </c>
-      <c r="U38">
-        <v>2.12</v>
-      </c>
       <c r="V38">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="W38">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="X38">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y38">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z38">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA38">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB38">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC38">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD38">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE38">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF38">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG38">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH38">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI38">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ38">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK38">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL38">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM38">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN38">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO38">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F39">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G39">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="H39">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I39">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J39">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K39">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L39">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M39">
         <v>1.09</v>
       </c>
       <c r="N39">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="O39">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P39">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="Q39">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="R39">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T39">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V39">
         <v>1.23</v>
       </c>
       <c r="W39">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="X39">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y39">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA39">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB39">
-        <v>7.6</v>
+        <v>29</v>
       </c>
       <c r="AC39">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AD39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE39">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF39">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG39">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI39">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM39">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN39">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO39">
         <v>1000</v>
@@ -5689,251 +5707,501 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F40">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="G40">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="J40">
         <v>3.3</v>
       </c>
       <c r="K40">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L40">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M40">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N40">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="P40">
-        <v>1.72</v>
+        <v>1.94</v>
       </c>
       <c r="Q40">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="R40">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S40">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="T40">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="U40">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="V40">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="W40">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="X40">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Y40">
+        <v>1000</v>
+      </c>
+      <c r="Z40">
+        <v>1000</v>
+      </c>
+      <c r="AA40">
+        <v>1000</v>
+      </c>
+      <c r="AB40">
         <v>13</v>
       </c>
-      <c r="Z40">
-        <v>27</v>
-      </c>
-      <c r="AA40">
-        <v>100</v>
-      </c>
-      <c r="AB40">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AC40">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD40">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE40">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF40">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AG40">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH40">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI40">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ40">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK40">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL40">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM40">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN40">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO40">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41">
+        <v>1.9</v>
+      </c>
+      <c r="G41">
+        <v>1.94</v>
+      </c>
+      <c r="H41">
+        <v>4.7</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>3.6</v>
+      </c>
+      <c r="K41">
+        <v>3.75</v>
+      </c>
+      <c r="L41">
+        <v>1.47</v>
+      </c>
+      <c r="M41">
+        <v>1.08</v>
+      </c>
+      <c r="N41">
+        <v>3.4</v>
+      </c>
+      <c r="O41">
+        <v>1.4</v>
+      </c>
+      <c r="P41">
+        <v>1.81</v>
+      </c>
+      <c r="Q41">
+        <v>2.2</v>
+      </c>
+      <c r="R41">
+        <v>1.3</v>
+      </c>
+      <c r="S41">
+        <v>4.1</v>
+      </c>
+      <c r="T41">
+        <v>1.94</v>
+      </c>
+      <c r="U41">
+        <v>1.97</v>
+      </c>
+      <c r="V41">
+        <v>1.25</v>
+      </c>
+      <c r="W41">
+        <v>2.06</v>
+      </c>
+      <c r="X41">
+        <v>13.5</v>
+      </c>
+      <c r="Y41">
+        <v>17</v>
+      </c>
+      <c r="Z41">
+        <v>40</v>
+      </c>
+      <c r="AA41">
+        <v>150</v>
+      </c>
+      <c r="AB41">
+        <v>8</v>
+      </c>
+      <c r="AC41">
+        <v>8</v>
+      </c>
+      <c r="AD41">
+        <v>19</v>
+      </c>
+      <c r="AE41">
+        <v>85</v>
+      </c>
+      <c r="AF41">
+        <v>11</v>
+      </c>
+      <c r="AG41">
+        <v>10.5</v>
+      </c>
+      <c r="AH41">
+        <v>21</v>
+      </c>
+      <c r="AI41">
+        <v>90</v>
+      </c>
+      <c r="AJ41">
+        <v>27</v>
+      </c>
+      <c r="AK41">
+        <v>23</v>
+      </c>
+      <c r="AL41">
+        <v>50</v>
+      </c>
+      <c r="AM41">
+        <v>160</v>
+      </c>
+      <c r="AN41">
+        <v>17.5</v>
+      </c>
+      <c r="AO41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42">
+        <v>1.94</v>
+      </c>
+      <c r="G42">
+        <v>1.95</v>
+      </c>
+      <c r="H42">
+        <v>4.7</v>
+      </c>
+      <c r="I42">
+        <v>4.9</v>
+      </c>
+      <c r="J42">
+        <v>3.55</v>
+      </c>
+      <c r="K42">
+        <v>3.6</v>
+      </c>
+      <c r="L42">
+        <v>1.49</v>
+      </c>
+      <c r="M42">
+        <v>1.1</v>
+      </c>
+      <c r="N42">
+        <v>3.2</v>
+      </c>
+      <c r="O42">
+        <v>1.43</v>
+      </c>
+      <c r="P42">
+        <v>1.74</v>
+      </c>
+      <c r="Q42">
+        <v>2.28</v>
+      </c>
+      <c r="R42">
+        <v>1.26</v>
+      </c>
+      <c r="S42">
+        <v>4.4</v>
+      </c>
+      <c r="T42">
+        <v>2.02</v>
+      </c>
+      <c r="U42">
+        <v>1.89</v>
+      </c>
+      <c r="V42">
+        <v>1.25</v>
+      </c>
+      <c r="W42">
+        <v>2.04</v>
+      </c>
+      <c r="X42">
+        <v>11</v>
+      </c>
+      <c r="Y42">
+        <v>14</v>
+      </c>
+      <c r="Z42">
+        <v>34</v>
+      </c>
+      <c r="AA42">
+        <v>120</v>
+      </c>
+      <c r="AB42">
+        <v>7.6</v>
+      </c>
+      <c r="AC42">
+        <v>7.8</v>
+      </c>
+      <c r="AD42">
+        <v>19.5</v>
+      </c>
+      <c r="AE42">
+        <v>75</v>
+      </c>
+      <c r="AF42">
+        <v>11</v>
+      </c>
+      <c r="AG42">
+        <v>10.5</v>
+      </c>
+      <c r="AH42">
+        <v>23</v>
+      </c>
+      <c r="AI42">
+        <v>90</v>
+      </c>
+      <c r="AJ42">
+        <v>23</v>
+      </c>
+      <c r="AK42">
+        <v>23</v>
+      </c>
+      <c r="AL42">
         <v>48</v>
       </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41">
-        <v>1.7</v>
-      </c>
-      <c r="G41">
-        <v>2.06</v>
-      </c>
-      <c r="H41">
+      <c r="AM42">
+        <v>150</v>
+      </c>
+      <c r="AN42">
+        <v>17.5</v>
+      </c>
+      <c r="AO42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>1.81</v>
+      </c>
+      <c r="G43">
+        <v>1.87</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5.4</v>
+      </c>
+      <c r="J43">
+        <v>3.7</v>
+      </c>
+      <c r="K43">
         <v>4</v>
       </c>
-      <c r="I41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>3.45</v>
-      </c>
-      <c r="K41">
-        <v>6.2</v>
-      </c>
-      <c r="L41">
-        <v>1.01</v>
-      </c>
-      <c r="M41">
-        <v>1.01</v>
-      </c>
-      <c r="N41">
-        <v>1.01</v>
-      </c>
-      <c r="O41">
-        <v>1.34</v>
-      </c>
-      <c r="P41">
-        <v>1.69</v>
-      </c>
-      <c r="Q41">
-        <v>1.84</v>
-      </c>
-      <c r="R41">
-        <v>1.27</v>
-      </c>
-      <c r="S41">
-        <v>3.05</v>
-      </c>
-      <c r="T41">
-        <v>1.01</v>
-      </c>
-      <c r="U41">
-        <v>1.01</v>
-      </c>
-      <c r="V41">
-        <v>1.16</v>
-      </c>
-      <c r="W41">
-        <v>1.94</v>
-      </c>
-      <c r="X41">
-        <v>1000</v>
-      </c>
-      <c r="Y41">
-        <v>1000</v>
-      </c>
-      <c r="Z41">
-        <v>1000</v>
-      </c>
-      <c r="AA41">
-        <v>1000</v>
-      </c>
-      <c r="AB41">
-        <v>1000</v>
-      </c>
-      <c r="AC41">
-        <v>1000</v>
-      </c>
-      <c r="AD41">
-        <v>1000</v>
-      </c>
-      <c r="AE41">
-        <v>1000</v>
-      </c>
-      <c r="AF41">
-        <v>1000</v>
-      </c>
-      <c r="AG41">
-        <v>1000</v>
-      </c>
-      <c r="AH41">
-        <v>1000</v>
-      </c>
-      <c r="AI41">
-        <v>1000</v>
-      </c>
-      <c r="AJ41">
-        <v>1000</v>
-      </c>
-      <c r="AK41">
-        <v>1000</v>
-      </c>
-      <c r="AL41">
-        <v>1000</v>
-      </c>
-      <c r="AM41">
-        <v>1000</v>
-      </c>
-      <c r="AN41">
-        <v>1000</v>
-      </c>
-      <c r="AO41">
+      <c r="L43">
+        <v>1.45</v>
+      </c>
+      <c r="M43">
+        <v>1.08</v>
+      </c>
+      <c r="N43">
+        <v>3.35</v>
+      </c>
+      <c r="O43">
+        <v>1.37</v>
+      </c>
+      <c r="P43">
+        <v>1.81</v>
+      </c>
+      <c r="Q43">
+        <v>2.12</v>
+      </c>
+      <c r="R43">
+        <v>1.3</v>
+      </c>
+      <c r="S43">
+        <v>3.75</v>
+      </c>
+      <c r="T43">
+        <v>1.92</v>
+      </c>
+      <c r="U43">
+        <v>1.89</v>
+      </c>
+      <c r="V43">
+        <v>1.22</v>
+      </c>
+      <c r="W43">
+        <v>2.14</v>
+      </c>
+      <c r="X43">
+        <v>13</v>
+      </c>
+      <c r="Y43">
+        <v>17</v>
+      </c>
+      <c r="Z43">
+        <v>50</v>
+      </c>
+      <c r="AA43">
+        <v>1000</v>
+      </c>
+      <c r="AB43">
+        <v>9</v>
+      </c>
+      <c r="AC43">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD43">
+        <v>23</v>
+      </c>
+      <c r="AE43">
+        <v>1000</v>
+      </c>
+      <c r="AF43">
+        <v>11</v>
+      </c>
+      <c r="AG43">
+        <v>11</v>
+      </c>
+      <c r="AH43">
+        <v>26</v>
+      </c>
+      <c r="AI43">
+        <v>1000</v>
+      </c>
+      <c r="AJ43">
+        <v>24</v>
+      </c>
+      <c r="AK43">
+        <v>22</v>
+      </c>
+      <c r="AL43">
+        <v>55</v>
+      </c>
+      <c r="AM43">
+        <v>1000</v>
+      </c>
+      <c r="AN43">
+        <v>17.5</v>
+      </c>
+      <c r="AO43">
         <v>1000</v>
       </c>
     </row>
